--- a/doc/exercicios/gabarito/Gabarito-treina-sql-i.xlsx
+++ b/doc/exercicios/gabarito/Gabarito-treina-sql-i.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
   <si>
     <t>Capítulo</t>
   </si>
@@ -129,12 +129,564 @@
   <si>
     <t>Hands On</t>
   </si>
+  <si>
+    <t>De quanto e quais paises são os empregados (Employees) da NortWind ?</t>
+  </si>
+  <si>
+    <t>Quantos e quais são os cargos (title) que existem no quadro de empregados (Employees) da NorthWind?</t>
+  </si>
+  <si>
+    <t>De quanto e quais paises são os clientes (Customers) da NortWind ?</t>
+  </si>
+  <si>
+    <t>Quantos e quais são os fornecedores (Suppliers) da NorthWind?</t>
+  </si>
+  <si>
+    <t>Quantos e quais são os territórios(Territories) da região ( RegionId) com identificação 4?</t>
+  </si>
+  <si>
+    <t>Quem e o vice presidente de vendas ( 'Vice President, Sales' ) da NothWind? Qual o seu nome e sobrenome?</t>
+  </si>
+  <si>
+    <t>Qual o nome do contato do cliente (Customers) daquela companhia de Campinas no Brasil?</t>
+  </si>
+  <si>
+    <t>Qual o nome do funcionário representante de cendas ('Sales Representative') que foi contratado  antes de 1.993 e que nasceu após a década de 50?</t>
+  </si>
+  <si>
+    <t>A NorthWind está abrindo uma fábrica na China e precisa localizar um fornecedor (Suppliers) para atende-la, que seja da Asia Oriental ou Oceania ( você vai ter que achar os países ), porém já se sabe que um terrível terromoto destruiu a cidade (City) de Osaka e a Região não pode ser a região de 'Victoria' por causa de uma epidemia de dengue. Quais são os possíveis fornecedores? ( Não usar cláusula IN, somente AND e OR)</t>
+  </si>
+  <si>
+    <t>As vendas não estão indo muito bem e o vice presidente de vendas da NorthWind precisa reduzir 2 empregados e optou pelos recem contratados. Elabore uma lista com os funcionários que reportam a ele ( ReportsTo ) ordenadas por data de contratação ( HireDate ) do mais novo para o mais antigo.</t>
+  </si>
+  <si>
+    <t>Conte a quantidade de empregados que respondem (ReportsTo ) ao vice presidente de vendas. Conte a quantidade de empregados que *NÃO* respondem (ReportsTo ) ao vice presidente de vendas. Conte a quantidade total de empregados. Explique porque a soma dos que respondem e os que  não respondem, não bate com o total dos funcionários.</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t>WHERE col = valor_numerico</t>
+  </si>
+  <si>
+    <t>WHERE col = valor_string</t>
+  </si>
+  <si>
+    <t>WHERE expressão-1 AND expressão-2</t>
+  </si>
+  <si>
+    <t>WHERE col = valor_data</t>
+  </si>
+  <si>
+    <t>WHERE IS NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE IS NULL </t>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+  </si>
+  <si>
+    <t>Quantos produtos (Products) tem a NorthWind? Quantos deles estão descontinuados ( Discontinued ) ?</t>
+  </si>
+  <si>
+    <t>Quantos registros tem em cada uma das tabelas do banco de dados NorthWind?</t>
+  </si>
+  <si>
+    <t>SELECT 'Categories',    COUNT(*) FROM Categories
+UNION ALL SELECT 'Customers',     COUNT(*) FROM Customers
+UNION ALL SELECT 'Employees',     COUNT(*) FROM Employees
+UNION ALL SELECT 'Order Details', COUNT(*) FROM [Order Details]
+UNION ALL SELECT 'Orders',        COUNT(*) FROM Orders
+UNION ALL SELECT 'Products',      COUNT(*) FROM Products
+UNION ALL SELECT 'Shippers',      COUNT(*) FROM Shippers
+UNION ALL SELECT 'Suppliers',     COUNT(*) FROM Suppliers
+;
+/*
+(Nenhum nome de coluna) (Nenhum nome de coluna)
+Categories 8
+Customers 91
+Employees 9
+Order Details 2155
+Orders 830
+Products 77
+Shippers 3
+Suppliers 29
+*/</t>
+  </si>
+  <si>
+    <t>Faça uma consulta que retorne os 20 primeiros pedidos (Orders) da base de dados SQLSERVER. Agora faça a mesma consulta nas bases de dados Oracle, PostgreSQL e MySQL</t>
+  </si>
+  <si>
+    <t>SELECT TOP 10 * -- SQLServer
+FROM   Orders;
+SELECT * -- Oracle
+FROM   Orders
+WHERE ROWNUM &lt;= 10;
+SELECT * -- PostgreSql e MySQL
+FROM   Orders
+LIMIT 10;</t>
+  </si>
+  <si>
+    <t>Quais foram as datas (Order Date) do primeiro pedido registrado e o último pedido registrado pela NorthWind?</t>
+  </si>
+  <si>
+    <t>Quantas regiões distintas os empregados (Employees) estão?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantas categorias (CategoryId) distintas de produtos (Products) possui a NorthWind? </t>
+  </si>
+  <si>
+    <t>Qual a quantidade (UnitsInStock) total de produtos (Products) em estoque da NorthWind? Qual o preço (UnitPrice)  médio dos produtos?</t>
+  </si>
+  <si>
+    <t>A NorthWind está pretendendo enviar um brinde de natal mais simples para todos os contatos (ContactTitle) de seus clientes (Customers) que são assistentes ( 'Assistant' ) . Faça uma query que resulte a informação desejada.</t>
+  </si>
+  <si>
+    <t>SELECT CompanyName, ContactName, ContactTitle
+FROM   Customers
+WHERE  ContactTitle LIKE 'Assistant%';
+/*
+CompanyName                ContactName      ContactTitle
+Folies gourmandes          Martine Rancé    Assistant Sales Agent
+Rattlesnake Canyon Grocery Paula Wilson     Assistant Sales Representative
+Ricardo Adocicados         Janete Limeira   Assistant Sales Agent
+*/</t>
+  </si>
+  <si>
+    <t>Você estudou no Boston College e quer saber se tem mais algum colega de estudo na empresa. Você sabe que a pessoa responsável pelo cadastro de funcionários costuma anotar ( Note ) as informações de graduação na ficha de funcionários.</t>
+  </si>
+  <si>
+    <t>Você como um bom latino americano, acredita que por proximidade da cultura, terá mais facilidade em atender os clientes da NorthWind destes paises. Localize estes clientes.</t>
+  </si>
+  <si>
+    <t>SELECT CompanyName, Country
+FROM   Customers
+WHERE  Country IN ( 'Argentina', 'Brazil', 'Mexico', 'Venezuela');</t>
+  </si>
+  <si>
+    <t>O vice presidente de vendas da NorthWind resolveu fazer um grande encontro global com todos os funcionários e logo em seguida tem uma grande festa. Estas festas são famosas! Você que nasceu em 1950, está se antecipando e identidicando potenciais parceiros, independente da orientação sexual, em sua mesma faixa etária, com no máximo uma tolerância de 3 anos a mais ou a menos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT FirstName, LastName, BirthDate, Title
+FROM   Employees
+WHERE  BirthDate BETWEEN '1947-01-01' AND '1953-01-01'
+ORDER  BY BirthDate;
+/*
+Name          BirthDate  Title
+------------- ---------- ----------------------
+Nancy Davolio 1948-12-08 Sales Representative
+Andrew Fuller 1952-02-19 Vice President, Sales
+*/
+</t>
+  </si>
+  <si>
+    <t>SELECT FirstName, LastName, Notes
+FROM   Employees
+WHERE  Notes LIKE '%Boston College%';
+/*
+ Janet Leverling  ... degree in ... Boston College (1984) ...
+*/</t>
+  </si>
+  <si>
+    <t>SELECT SUM( UnitsInStock ) AS Total_UnitsInStock,
+       AVG( UnitPrice )    AS Avarage_UnitPrice,
+    SUM( UnitsInStock * UnitPrice) AS Total_PriceInStock
+FROM   Products;
+/*
+Total_UnitsInStock: 3119
+Avarage_UnitPrice:  28,8663
+Total_PriceInStock:  74050,85
+*/</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*), COUNT(DISTINCT Region)
+FROM   Employees;
+/*
+1 desconsiderando os nulos
+*/</t>
+  </si>
+  <si>
+    <t>SELECT COUNT( DISTINCT CategoryId )
+FROM   Products;
+/*
+8
+*/</t>
+  </si>
+  <si>
+    <t>SELECT MIN(OrderDate), MAX(OrderDate)
+FROM   Orders;
+/*
+Primeiro: 1996-07-04 
+Último:   1998-05-06
+*/</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM Products;
+SELECT COUNT(*) FROM Products WHERE Discontinued = 1;
+/*
+ 77 e 8 discontinued
+ */</t>
+  </si>
+  <si>
+    <t>SELECT FirstName, LastName, HireDate
+FROM   Employees
+WHERE  ReportsTo = 2
+ORDER  BY HireDate DESC;
+/*
+Laura Callahan, Steven Buchanan, Margaret Peacock, Nancy Davolio, Janet Leverling
+*/</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM Employees WHERE ReportsTo = 2;
+SELECT COUNT(*) FROM Employees WHERE ReportsTo &lt;&gt; 2;
+SELECT COUNT(*) FROM Employees;
+/*
+5 + 3 = 8 + (1 nullo) = 9 (total)
+*/</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM   Suppliers
+WHERE  ( Country  = 'Australia' OR     Country  = 'Japan' OR     Country = 'Singapore' )
+AND    City &lt;&gt; 'Osaka'
+AND    ( Region IS NULL OR Region &lt;&gt; 'Victoria' );
+/*
+3: Tokyo Traders, Leka Trading, G'day, Mate
+*/</t>
+  </si>
+  <si>
+    <t>SELECT FirstName, LastName, HireDate, BirthDate
+FROM  Employees
+WHERE Title = 'Sales Representative'
+AND   HireDate  &lt; '1993-01-01'
+AND   BirthDate &gt; '1950-11-01';
+/*
+Janet Leverling - HireDate: 1992-04-01 BirthDate: 1963-08-30
+*/</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM   Customers
+WHERE  Country = 'Brazil' AND City = 'Campinas';
+/*
+André Fonseca
+*/</t>
+  </si>
+  <si>
+    <t>SELECT FirstName, LastName
+FROM   Employees
+WHERE  Title = 'Vice President, Sales';
+/* 
+Andrew Fuller
+*/</t>
+  </si>
+  <si>
+    <t>SELECT TerritoryDescription
+FROM   Territories
+WHERE  RegionID = 4;
+/*
+8: Columbia, Atlanta, Savannah, Orlando, 
+     Tampa, Bentonville, Dallas, Austin
+*/</t>
+  </si>
+  <si>
+    <t>SELECT CompanyName
+FROM   Suppliers
+WHERE  country = 'USA';
+/*
+4: New Orleans Cajun Delights, Grandma Kelly's Homestead, Bigfoot Breweries, New England Seafood Cannery
+*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT DISTINCT Country
+FROM   Customers;
+/*
+21: Argentina, ..., Venezuela
+*/
+</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT Title
+FROM   dbo.Employees;
+/*
+4: Inside Sales Coordinator, Sales Manager, Sales Representative, Vice President, Sales
+*/</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT Country
+FROM   dbo.Employees;
+/*
+ 2: UK e USA
+*/</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>TOP SQLServer, ROWNUM Oracle, LIMIT PostgreSQL e MySQL</t>
+  </si>
+  <si>
+    <t>MIN(), MAX()</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT )</t>
+  </si>
+  <si>
+    <t>SUM( ), AVG( )</t>
+  </si>
+  <si>
+    <t>LIKE</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>BETWEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT OrderID
+      ,CustomerID
+      ,EmployeeID
+   ,ShippedDate
+   ,CompanyName
+FROM  Orders
+INNER JOIN Shippers
+ON    ShipperID = ShipVia
+WHERE ShippedDate IS NULL
+AND   CompanyName = 'Speedy Express'
+ORDER BY ShippedDate, ShipVia, ShipCountry;
+/*
+OrderID CustomerID EmployeeID ShippedDate CompanyName
+------- ---------- ----------- ---------- ------------
+11054   CACTU      8           NULL       Speedy Express
+11070   LEHMS      2           NULL       Speedy Express
+11071   LILAS      1           NULL       Speedy Express
+11065   LILAS      8           NULL       Speedy Express
+*/
+</t>
+  </si>
+  <si>
+    <t>INNER JOIN (2 tabelas)</t>
+  </si>
+  <si>
+    <t>Depois de você ter mostrado o resultado da quey do exercício anterior, o vice presidente lhe disse que foi um bom trabalho mas não iria ajudar muito porque ele não saberia dizer quem avisar e nem passar dados porque ele não conhece o cliente pelo código, nem o funcionário que vendeu e não tem o identificador do pedido. Você sem pestanejar um segundo, acrescentou as informações que faltavam.</t>
+  </si>
+  <si>
+    <t>INNER JOIN (+ de 2 tabelas e resolução de conflito de ambiguidade no nome das colunas  tabelas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT Orders.OrderID
+      ,Orders.CustomerID
+   ,Customers.CompanyName AS CustomerCompanyName
+      ,Orders.EmployeeID
+   ,Employees.FirstName
+   ,Employees.LastName
+   ,Orders.ShippedDate
+   ,Shippers.CompanyName
+FROM  Orders
+INNER JOIN Shippers
+ON    ShipperID = ShipVia
+INNER JOIN Customers
+ON    Customers.CustomerID = Orders.CustomerID
+INNER JOIN Employees
+ON    Employees.EmployeeID = Orders.EmployeeID
+WHERE ShippedDate IS NULL
+AND   Shippers.CompanyName = 'Speedy Express'
+ORDER BY ShippedDate, ShipVia, ShipCountry;
+/*
+OrderID CustomerID CustomerCompanyName        EmployeeID Name           ShippedDate CompanyName
+------- ---------- -------------------------- ---------- -------------- ----------- --------------
+11054   CACTU      Cactus Comidas para llevar 8          Laura Callahan NULL        Speedy Express
+11070   LEHMS      Lehmanns Marktstand        2          Andrew Fuller  NULL        Speedy Express
+11065   LILAS      LILA-Supermercado          8          Laura Callahan NULL        Speedy Express
+11071   LILAS      LILA-Supermercado          1          Nancy Davolio  NULL        Speedy Express
+*/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT Orders.OrderID
+      ,Orders.CustomerID
+   ,Customers.CompanyName AS CustomerCompanyName
+      ,Orders.EmployeeID
+   ,Employees.FirstName
+   ,Employees.LastName
+   ,Employees.ReportsTo
+   ,ReportToEmployees.FirstName AS ReportToName
+   ,Orders.ShippedDate
+   ,Shippers.CompanyName
+FROM  Orders
+INNER JOIN Shippers
+ON    ShipperID = ShipVia
+INNER JOIN Customers
+ON    Customers.CustomerID = Orders.CustomerID
+INNER JOIN Employees
+ON    Employees.EmployeeID = Orders.EmployeeID
+LEFT  JOIN Employees AS ReportToEmployees
+ON    ReportToEmployees.EmployeeID = Employees.ReportsTo
+WHERE ShippedDate IS NULL
+AND   Shippers.CompanyName = 'Speedy Express'
+ORDER BY ShippedDate, ShipVia, ShipCountry;
+/*
+OrderID CustomerID CustomerCompanyName        EmployeeID Name            ReportsTo ShippedDate CompanyName
+------- ---------- -------------------------- ---------- --------------- --------- ----------- --------------
+11054   CACTU      Cactus Comidas para llevar 8          Laura Callahan 2 Andrew NULL       Speedy Express
+11070   LEHMS      Lehmanns Marktstand        2          Andrew Fuller              NULL       Speedy Express
+11065   LILAS      LILA-Supermercado          8          Laura Callahan 2 Andrew NULL       Speedy Express
+11071   LILAS      LILA-Supermercado          1          Nancy Davolio  2 Andrew NULL       Speedy Express
+*/
+</t>
+  </si>
+  <si>
+    <t>O vice presidente de vendas da NorthWind chamou a atenção do funcionário invejoso em um reply-all para toda companhia e elogiou o seu trabalho. E você quis aproveitar o seu momento de glória, resolveu acrescentar todos os detalhes dos pedidos, inclusive os produtos vendidos, suas categorias, preços de venda, etc.</t>
+  </si>
+  <si>
+    <t>SELECT Orders.OrderID
+      ,Orders.CustomerID
+      ,Customers.CompanyName AS CustomerCompanyName
+      ,Orders.EmployeeID
+      ,Employees.FirstName
+      ,Employees.LastName
+      ,Employees.ReportsTo
+      ,ReportToEmployees.FirstName AS ReportToName
+      ,Orders.ShippedDate
+      ,Shippers.CompanyName
+   ,(OrderDetails.Quantity * OrderDetails.UnitPrice - OrderDetails.Discount) AS VlrLiquidoVenda
+   ,Products.ProductName
+   ,Categories.CategoryName
+FROM  Orders
+INNER JOIN Shippers
+ON    ShipperID = ShipVia
+INNER JOIN Customers
+ON    Customers.CustomerID = Orders.CustomerID
+INNER JOIN Employees
+ON    Employees.EmployeeID = Orders.EmployeeID
+LEFT  JOIN Employees AS ReportToEmployees
+ON    ReportToEmployees.EmployeeID = Employees.ReportsTo
+INNER JOIN [Order Details] AS OrderDetails
+ON    OrderDetails.OrderID = Orders.OrderID
+INNER JOIN Products
+ON    Products.ProductID = OrderDetails.ProductID
+INNER JOIN Categories
+ON    Categories.CategoryID = Products.CategoryID
+--
+WHERE ShippedDate IS NULL
+AND   Shippers.CompanyName = 'Speedy Express'
+ORDER BY ShippedDate, ShipVia, ShipCountry, Orders.OrderID, Categories.CategoryName, Products.ProductName;
+/*
+OrderID CustomerID CustomerCompanyName        EmployeeID Name            ReportsTo ShippedDate CompanyName   VlrLiquidoVenda ProductName                    CategoryName
+------- ---------- -------------------------- ---------- --------------- --------- ----------- ----------------------------- -----------                    ------------------------
+11054   CACTU      Cactus Comidas para llevar 8          Laura Callahan  2 Andrew  NULL        Speedy Express 280            Laughing Lumberjack Lager      Beverages
+11054   CACTU      Cactus Comidas para llevar 8          Laura Callahan  2 Andrew  NULL        Speedy Express 25             Geitost                        Dairy Products
+11070   LEHMS      Lehmanns Marktstand        2          Andrew Fuller   NULL      NULL        Speedy Express 719,85         Chai                           Beverages
+11070   LEHMS      Lehmanns Marktstand        2          Andrew Fuller   NULL      NULL        Speedy Express 379,85         Chang                          Beverages
+11070   LEHMS      Lehmanns Marktstand        2          Andrew Fuller   NULL      NULL        Speedy Express 523,35         Pavlova                        Confections
+11070   LEHMS      Lehmanns Marktstand        2          Andrew Fuller   NULL      NULL        Speedy Express 250            Gorgonzola Telino              Dairy Products
+11065   LILAS      LILA-Supermercado          8          Laura Callahan  2 Andrew  NULL        Speedy Express 148,75         Tourtière                      Meat/Poultry
+11065   LILAS      LILA-Supermercado          8          Laura Callahan  2 Andrew  NULL        Speedy Express 103,31         Nord-Ost Matjeshering          Seafood
+11071   LILAS      LILA-Supermercado          1          Nancy Davolio   2 Andrew  NULL        Speedy Express 449,95         Uncle Bob's Organic Dried PearsProduce
+11071   LILAS      LILA-Supermercado          1          Nancy Davolio   2 Andrew  NULL        Speedy Express 59,95          Konbu                          Seafood
+*/</t>
+  </si>
+  <si>
+    <t>JOIN LEFT e SELF JOIN - Quem utilizar INNER JOIN ao invés de LEFT JOIN terá um resultado errado</t>
+  </si>
+  <si>
+    <t>JOIN INNER, LEFT, SELF (muitas tabelas)</t>
+  </si>
+  <si>
+    <t>Você encontrou o vice presidente de vendas no café e ele comentou com você que a NorthWind poderia reduzir o custo de entrega, se pudesse avisar os empregados responsáveis pelas vendas (Orders) de cujas entregas ainda não foram despachadas ( ShippedDate ) pela Speedy Express, fossem substituídas por outra transportadora. Você tentando impressioná-lo correu para fazer uma query na base de dados e ganhar visibilidade na companhia.</t>
+  </si>
+  <si>
+    <t>O vice presidente de vendas da NorthWind mandou um e-mail para toda companhia agradecendo seu trabalho. Mas um outro funcionário invejoso fez um reply-all com a seguinte crítica: para quem estes funcionários reportam-se? É preciso avisar imediatamente seus superiores porque senão não haverá tempo hábil para a mudança de transportadora. Você que para não dar mole para aquele mané, resolveu adicionar o nome e sobrenome do superior em sua query.</t>
+  </si>
+  <si>
+    <t>Agora, na NorthWind, você ficou conhecido como "o cara" das informações detalhadas. Todos os gestores para quais os vendedores reportam e o vice presidente começou a procurá-lo para pedir informações. E uma coisa curiosa começou a acontecer, eles não queriam mais tantos detalhes nas consultas, apenas agrupamentos e somatórios de grandes números para tomada de decisão. O primeiro pedido veio do próprio vice presidente que queria saber quantos empregados a NorthWind tinha em cada país?</t>
+  </si>
+  <si>
+    <t>SELECT Country, COUNT(*) AS QtdeEmployees
+FROM   Employees
+GROUP  BY Country
+ORDER  BY Country;
+/*
+Country QtdeEmployees
+------- -------------
+UK      4
+USA     5
+*/</t>
+  </si>
+  <si>
+    <t>GROUP BY</t>
+  </si>
+  <si>
+    <t>Em seguida ele quis saber quantos empregados em quantas cidades distintas de cada país. Observe que ele não quis saber as cidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT Country, 
+       COUNT(*) AS QtdeEmployees,
+       COUNT(DISTINCT City) 
+FROM   Employees
+GROUP  BY Country
+ORDER  BY Country;
+/*
+Country QtdeEmployees
+------- -------------
+UK      4
+USA     5
+*/
+</t>
+  </si>
+  <si>
+    <t>GROUP BY com COUNT(DISTINCT )</t>
+  </si>
+  <si>
+    <t>GROUP BY + JOIN INNER + JOIN LEFT. Quem usar LEFT JOIN vai ter um resultado diferente de INNER JOIN.</t>
+  </si>
+  <si>
+    <t>SELECT Employees.Country
+       ,ReportToEmployees.FirstName
+       ,COUNT(*) AS QtdeEmployees
+FROM   Employees
+LEFT   JOIN Employees AS ReportToEmployees
+--INNER  JOIN Employees AS ReportToEmployees
+ON     ReportToEmployees.EmployeeID = Employees.ReportsTo
+GROUP  BY Employees.Country
+       ,ReportToEmployees.FirstName
+ORDER  BY Employees.Country
+       ,ReportToEmployees.FirstName
+/*
+Country FirstName QtdeEmployees
+------- --------- -------------
+UK      Andrew    1
+UK      Steven    3
+USA     NULL      1
+USA     Andrew    4
+*/</t>
+  </si>
+  <si>
+    <t>Concatenação no Oracle vs SQLServer</t>
+  </si>
+  <si>
+    <t>Depois ele quis saber para quantas pessoas cada gestor era responsável em cada país. E depois destas perguntas vieram muitas outras.</t>
+  </si>
+  <si>
+    <t>HAVING</t>
+  </si>
+  <si>
+    <t>IN subselect</t>
+  </si>
+  <si>
+    <t>EXISTS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +699,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -170,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -186,6 +744,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -205,7 +769,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -333,8 +897,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaExercicios" displayName="TabelaExercicios" ref="A1:F16" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaExercicios" displayName="TabelaExercicios" ref="A1:F43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F43"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#Cap" dataDxfId="5"/>
     <tableColumn id="6" name="Capítulo" dataDxfId="4"/>
@@ -610,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,7 +1187,7 @@
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="57.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -643,11 +1207,11 @@
       <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -663,7 +1227,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -677,9 +1241,9 @@
         <v>2</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -693,9 +1257,9 @@
         <v>3</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -709,9 +1273,9 @@
         <v>8</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -727,127 +1291,697 @@
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="7">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="7">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="7">
+        <v>6</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>6</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/doc/exercicios/gabarito/Gabarito-treina-sql-i.xlsx
+++ b/doc/exercicios/gabarito/Gabarito-treina-sql-i.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
   <si>
     <t>Capítulo</t>
   </si>
@@ -196,28 +196,6 @@
     <t>Quantos registros tem em cada uma das tabelas do banco de dados NorthWind?</t>
   </si>
   <si>
-    <t>SELECT 'Categories',    COUNT(*) FROM Categories
-UNION ALL SELECT 'Customers',     COUNT(*) FROM Customers
-UNION ALL SELECT 'Employees',     COUNT(*) FROM Employees
-UNION ALL SELECT 'Order Details', COUNT(*) FROM [Order Details]
-UNION ALL SELECT 'Orders',        COUNT(*) FROM Orders
-UNION ALL SELECT 'Products',      COUNT(*) FROM Products
-UNION ALL SELECT 'Shippers',      COUNT(*) FROM Shippers
-UNION ALL SELECT 'Suppliers',     COUNT(*) FROM Suppliers
-;
-/*
-(Nenhum nome de coluna) (Nenhum nome de coluna)
-Categories 8
-Customers 91
-Employees 9
-Order Details 2155
-Orders 830
-Products 77
-Shippers 3
-Suppliers 29
-*/</t>
-  </si>
-  <si>
     <t>Faça uma consulta que retorne os 20 primeiros pedidos (Orders) da base de dados SQLSERVER. Agora faça a mesma consulta nas bases de dados Oracle, PostgreSQL e MySQL</t>
   </si>
   <si>
@@ -289,17 +267,6 @@
 WHERE  Notes LIKE '%Boston College%';
 /*
  Janet Leverling  ... degree in ... Boston College (1984) ...
-*/</t>
-  </si>
-  <si>
-    <t>SELECT SUM( UnitsInStock ) AS Total_UnitsInStock,
-       AVG( UnitPrice )    AS Avarage_UnitPrice,
-    SUM( UnitsInStock * UnitPrice) AS Total_PriceInStock
-FROM   Products;
-/*
-Total_UnitsInStock: 3119
-Avarage_UnitPrice:  28,8663
-Total_PriceInStock:  74050,85
 */</t>
   </si>
   <si>
@@ -679,7 +646,351 @@
     <t>IN subselect</t>
   </si>
   <si>
-    <t>EXISTS</t>
+    <t>GROUP BY + ORDER BY (coluna totalizada)</t>
+  </si>
+  <si>
+    <t>SELECT c.CategoryName,
+    SUM( od.Quantity ) AS QuantityTotal
+FROM   Categories c
+INNER  JOIN Products p
+ON     p.CategoryID = c.CategoryID
+INNER  JOIN [Order Details] od
+ON     od.ProductID = p.ProductID
+GROUP  BY c.CategoryName
+ORDER  BY 2 DESC;
+/*
+CategoryName    QuantityTotal
+--------------- -------------
+Beverages       9532
+Dairy Products  9149
+Confections     7906
+Seafood         7681
+Condiments      5298
+Grains/Cereals  4562
+Meat/Poultry    4199
+Produce         2990
+*/</t>
+  </si>
+  <si>
+    <t>Qual a categoria de produtos vendeu mais?</t>
+  </si>
+  <si>
+    <t>EXISTS com subselect</t>
+  </si>
+  <si>
+    <t>Existe algum produto que foi descontinuado (Discontinued = 1), mas que ainda não foi entrege (ShippedDate IS NULL)? Se existir então precisamos avisar os empregados que efetuaram as respectivas vendas destes pedidos e seus clientes. (USE EXISTS)</t>
+  </si>
+  <si>
+    <t>SELECT o.OrderID,
+       o.CustomerID,
+    e.FirstName,
+    od.Quantity
+FROM   [Order Details] od
+INNER  JOIN Orders o
+ON     od.OrderID = o.OrderID
+INNER JOIN Employees e
+ON    e.EmployeeID = o.EmployeeID
+WHERE  o.ShippedDate IS NULL
+AND    EXISTS
+       (
+      SELECT 'X'
+   FROM   Products p2
+   WHERE  Discontinued = 1
+   AND    p2.ProductID = od.ProductID
+    )
+ORDER  BY OrderDate;
+/*
+OrderId CustomerId EmployName Qtde
+------- ---------- ---------- -----
+11008   ERNSH      Robert     70
+11039   LINOD      Nancy      20
+11051   LAMAI      Robert     10
+11059   RICAR      Andrew     12
+11062   REGGC      Margaret   10
+11068   QUEEN      Laura       8
+11073   PERIC      Andrew     20
+*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT o.CustomerID,
+       e.FirstName,
+       e.LastName,
+    o.OrderID,
+       SUM( od.Quantity * od.UnitPrice ) AS TotalPrice
+FROM   Orders o
+INNER  JOIN Employees e
+ON     e.EmployeeID = o.EmployeeID
+INNER  JOIN  [Order Details] od
+ON     od.OrderID = o.OrderID
+GROUP  BY o.CustomerID,
+       e.FirstName,
+       e.LastName,
+    o.OrderID
+HAVING SUM( od.Quantity * od.UnitPrice ) &gt; 15000 ;
+/*
+CustomerID Name          OrderID TotalPrice
+---------- ------------- ------- -----------
+QUICK      Andrew Fuller 10865   17.250,00
+HANAR      Nancy Davolio 10981   15.810,00
+SAVEA      Robert King   11030   16.321,90
+*/
+</t>
+  </si>
+  <si>
+    <t>Quais foram os pedidos com valor bruto total acima de 15.000 ?</t>
+  </si>
+  <si>
+    <t>SELECT o.OrderID,
+       o.CustomerID,
+    e.FirstName,
+    e.LastName,
+    e.Country,
+    c.CompanyName,
+    c.Country
+FROM   Orders o
+INNER  JOIN Employees e
+ON     e.EmployeeID = o.EmployeeID
+INNER  JOIN Customers c
+ON     c.CustomerID = o.CustomerID
+WHERE  o.EmployeeID IN
+       (
+      SELECT EmployeeID
+   FROM   Employees e
+   WHERE  e.Country &lt;&gt; 'USA'
+    )
+AND    o.CustomerID IN
+       (
+      SELECT CustomerID
+   FROM   Customers c
+   WHERE  Country = 'Mexico'
+    )
+;
+/*
+OrderID CustomerID Name            Country CompanyName                        Country
+------- ---------- --------------- ------- ---------------------------------- --------
+10308   ANATR      Robert King     UK      Ana Trujillo Emparedados y helados Mexico
+10319   TORTU      Robert King     UK      Tortuga Restaurante                Mexico
+10322   PERIC      Robert King     UK      Pericles Comidas clásicas          Mexico
+10474   PERIC      Steven Buchanan UK      Pericles Comidas clásicas          Mexico
+10507   ANTON      Robert King     UK      Antonio Moreno Taquería            Mexico
+10573   ANTON      Robert King     UK      Antonio Moreno Taquería            Mexico
+*/</t>
+  </si>
+  <si>
+    <t>Quais pedidos foram feitoas por empregados de fora do EUA para clientes do México?</t>
+  </si>
+  <si>
+    <t>HAVING, IN subselect</t>
+  </si>
+  <si>
+    <t>Para quais paises foram vendidos ( Valor Bruto ) mais do que para o Brazil?</t>
+  </si>
+  <si>
+    <t>SELECT c.Country,
+       SUM( od.Quantity * od.UnitPrice ) AS TotalPrice
+FROM   Orders o
+INNER  JOIN  [Order Details] od
+ON     od.OrderID = o.OrderID
+INNER  JOIN Customers c
+ON     c.CustomerId = o.CustomerId
+GROUP  BY c.Country
+HAVING SUM( od.Quantity * od.UnitPrice ) &gt;
+       (
+      SELECT SUM( od.Quantity * od.UnitPrice )
+         FROM   Orders o
+         INNER  JOIN  [Order Details] od
+         ON     od.OrderID = o.OrderID
+         INNER  JOIN Customers c
+         ON     c.CustomerId = o.CustomerId
+   WHERE  c.Country  = 'Brazil'
+    )
+ORDER  BY 2 DESC;
+/*
+Country TotalPrice
+------- -----------
+USA     263.566,98
+Germany 244.640,63
+Austria 139.496,63
+*/</t>
+  </si>
+  <si>
+    <t>CONCAT( ), + , ||</t>
+  </si>
+  <si>
+    <t>Não. Há bancos de dados relacionais, hierárquicos, nonSQL, etc. Podemos considerar o HD de nossa maquina um banco de dados e até o nosso celular tem um disco de armazenamento.</t>
+  </si>
+  <si>
+    <t>Oracle, SQLServer, Postgres, MySQL, MariaDB, DB2, H2SQL e MongoDB</t>
+  </si>
+  <si>
+    <t>Faça um modelo de dados e ao final gere o esquema em uma base de dados a sua escolha que atenda o seguinte negócio:
+1. Uma Pessoa pode ser Física ou Jurídica
+2. Toda Pessoa tem um nome , endereço e telefone para contato
+3. Toda Pessoa Física tem um CPF e um RG além de data de nascimento
+4. Toda Pessoa Jurídica tem um CNPJ e uma IE (inscrição estadual)
+5. Uma Pessoa pode ser Cliente
+6. Um Cliente pode fazer muitos Pedidos de Vendas
+7. Um Pedido de Venda é de um único Cliente
+8. Um Pedido de Venda possui data do pedido, cliente, status ( aberto, cancelado, aprovado, faturado ), valor total e descricao dos serviços solicitados.</t>
+  </si>
+  <si>
+    <t>/* SQLSERVER */
+SELECT FirstName + ' ' + LastName AS Name,
+       CONCAT(FirstName, ' ', LastName ) AS Name_Concat
+FROM  Employees e
+ORDER BY 1;
+/*
+Name            Name_Concat
+--------------- -----------------
+Andrew Fuller   Andrew Fuller
+Anne Dodsworth  Anne Dodsworth
+Janet Leverling Janet Leverling
+Laura Callahan  Laura Callahan
+*/</t>
+  </si>
+  <si>
+    <t>SUBSTR( ) e SUBSTRING( )</t>
+  </si>
+  <si>
+    <t>/* SQLSERVER */
+SELECT DISTINCT SUBSTRING( Phone, 1, 4 ) AS DDD
+FROM   Customers c
+WHERE  Country = 'Brazil'
+/*
+DDD
+----
+(11)
+(14)
+(21)
+*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARINDEX( ), LENGTH( ), INSTR( ) e LEN( ) , </t>
+  </si>
+  <si>
+    <t>O depto. administrativo da NorthWind  no Brasil está fazendo um trabalho de organização de cadastros e solicitou a você que liste os endereços dos clientes no Brazil em 2 campos: a) Nome da Rua/Logradouro; b) número.</t>
+  </si>
+  <si>
+    <t>/* SQLSERVER */
+SELECT Address,
+       SUBSTRING(Address, 1, CHARINDEX(',', Address) -1 ) AS RuaLogradouro,
+       SUBSTRING(Address, CHARINDEX(',', Address) +2, LEN(Address) ) AS RuaLogradouro
+FROM   Customers c
+WHERE  c.Country = 'Brazil';
+/*
+Address                  RuaLogradouro   RuaLogradouro
+------------------------ ---------------- -----------------
+Av. dos Lusíadas, 23     Av. dos Lusíadas 23
+Rua Orós, 92          Rua Orós         92
+Av. Brasil, 442          Av. Brasil       442
+Rua do Paço, 67          Rua do Paço      67
+*/</t>
+  </si>
+  <si>
+    <t>O vice presidete de vendas disse que não quer mais receber relatórios com primeiro nome e último nome separados. Pediu para que você montasse uma consulta com empregados, com o nome completo (FIrstName  LastName). 
+Faça o mesmo comando em cada uma das bases de dados. Comente algo a respeito.</t>
+  </si>
+  <si>
+    <t>O depto. administrativo da NorthWind  no Brasil está fazendo um trabalho de redução de custos de telefonia e pediu para você uma consulta dos DDD's das cidades no Brasil dos clientes. Monte esta consulta.
+b) Faça o mesmo comando em cada uma das bases de dados Oracle, PostgreSQL e MySQL. Comente algo a respeito.</t>
+  </si>
+  <si>
+    <t>O depto. de vendas quer saber quais são os clientes que são restaurantes para oferecer uma oferta especial. Lembre-se que restaurante em outra lingua pode ser "restaurant". Monte esta consulta.
+b) Faça o mesmo comando em cada uma das bases de dados Oracle, PostgreSQL e MySQL. Comente algo a respeito.</t>
+  </si>
+  <si>
+    <t>SELECT 'Categories' AS tablename,    COUNT(*) FROM Categories
+UNION ALL SELECT 'Customers' AS tablename,     COUNT(*) FROM Customers
+UNION ALL SELECT 'Employees' AS tablename,     COUNT(*) FROM Employees
+UNION ALL SELECT 'Order Details' AS tablename, COUNT(*) FROM [Order Details]
+UNION ALL SELECT 'Orders' AS tablename,        COUNT(*) FROM Orders
+UNION ALL SELECT 'Products' AS tablename,      COUNT(*) FROM Products
+UNION ALL SELECT 'Shippers' AS tablename,      COUNT(*) FROM Shippers
+UNION ALL SELECT 'Suppliers' AS tablename,     COUNT(*) FROM Suppliers
+;
+/*
+(Nenhum nome de coluna) (Nenhum nome de coluna)
+Categories 8
+Customers 91
+Employees 9
+Order Details 2155
+Orders 830
+Products 77
+Shippers 3
+Suppliers 29
+*/</t>
+  </si>
+  <si>
+    <t>/* SQLSERVER */
+SELECT CompanyName
+FROM   Customers
+WHERE  CompanyName LIKE '%restaurant%';
+/*
+GROSELLA-Restaurante
+Lonesome Pine Restaurant
+Tortuga Restaurante
+*/
+/* 
+SQLSERVER: LIKE CASE INSENSITIVE
+ORACLE: LIKE CASE SENSITIVE
+POSTGRESQL: LIKE CASE SENSITIVE
+*/</t>
+  </si>
+  <si>
+    <t>LIKE '%restaurant%' CASE IN/SENSITIVE</t>
+  </si>
+  <si>
+    <t>SELECT COALESCE(Region, Country), CompanyName
+FROM   Customers
+ORDER  BY 1,2;
+/*
+*/</t>
+  </si>
+  <si>
+    <t>O depto. de vendas quer tirar um relatório de clientes organizado (ordenado) por região (region, companyname) porem há muitos clientes com região nula. Você foi solicitado a ajustar a quey do relatório de forma que quando a região for nula, preencher com o nome do PAIS.
+b) Faça o mesmo comando em cada uma das bases de dados Oracle, PostgreSQL e MySQL. Comente algo a respeito.</t>
+  </si>
+  <si>
+    <t>COALESCE( ) e NVL ( )</t>
+  </si>
+  <si>
+    <t>O depto. de vendas quer reorganizar as regiões ainda não atribuídas (nulas) da seguinte forma: Latin America ( Argentina e Mexico) e os demais paises (Europa e outros)
+b) Faça o mesmo comando em cada uma das bases de dados Oracle, PostgreSQL e MySQL. Comente algo a respeito.</t>
+  </si>
+  <si>
+    <t>SELECT Region, Country,
+       CASE 
+         WHEN Region IS NULL  THEN
+           CASE 
+             WHEN Country IN ( 'Argentina', 'Mexico' ) THEN
+         'Latin America'
+       ELSE 
+         'Europa e outros'
+     END
+         ELSE Region
+       END NewRegion
+FROM   Customers
+WHERE  Region IS NULL
+ORDER  BY 1;
+/*
+*/</t>
+  </si>
+  <si>
+    <t>CASE ... WHEN THEN ELSE END</t>
+  </si>
+  <si>
+    <t>a) Nome do banco de dados; b) tabelas em minúsculos ou maiúsculo (case insensitive)</t>
+  </si>
+  <si>
+    <t>SELECT SUM( UnitsInStock ) AS Total_UnitsInStock,
+       AVG( UnitPrice )    AS Avarage_UnitPrice,
+    SUM( UnitsInStock * UnitPrice) AS Total_PriceInStock
+FROM   Products;
+/*
+Total_UnitsInStock: 3.119
+Avarage_UnitPrice:  28,8663
+Total_PriceInStock:  74050,85
+*/</t>
   </si>
 </sst>
 </file>
@@ -897,8 +1208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaExercicios" displayName="TabelaExercicios" ref="A1:F43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaExercicios" displayName="TabelaExercicios" ref="A1:F50" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F50"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#Cap" dataDxfId="5"/>
     <tableColumn id="6" name="Capítulo" dataDxfId="4"/>
@@ -1174,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1224,7 +1535,9 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1240,7 +1553,9 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1272,10 +1587,12 @@
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1307,7 +1624,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>43</v>
@@ -1327,7 +1644,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>43</v>
@@ -1347,7 +1664,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>43</v>
@@ -1367,7 +1684,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>44</v>
@@ -1387,7 +1704,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>45</v>
@@ -1407,7 +1724,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>46</v>
@@ -1427,7 +1744,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>47</v>
@@ -1447,7 +1764,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>48</v>
@@ -1467,7 +1784,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>49</v>
@@ -1487,7 +1804,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>50</v>
@@ -1507,7 +1824,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>51</v>
@@ -1527,10 +1844,10 @@
         <v>52</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1547,10 +1864,10 @@
         <v>53</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1564,13 +1881,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="F20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1584,13 +1901,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1604,13 +1921,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1624,13 +1941,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1644,13 +1961,13 @@
         <v>7</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1664,12 +1981,14 @@
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
@@ -1682,13 +2001,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1702,13 +2021,13 @@
         <v>3</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1722,13 +2041,13 @@
         <v>4</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="F28" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1742,13 +2061,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1762,13 +2081,13 @@
         <v>2</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1782,13 +2101,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1802,13 +2121,13 @@
         <v>4</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1822,13 +2141,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1842,13 +2161,13 @@
         <v>2</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1862,13 +2181,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1881,8 +2200,12 @@
       <c r="C36" s="7">
         <v>4</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="F36" s="8" t="s">
         <v>115</v>
       </c>
@@ -1897,10 +2220,14 @@
       <c r="C37" s="7">
         <v>5</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F37" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1913,75 +2240,231 @@
       <c r="C38" s="7">
         <v>6</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F38" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C39" s="7">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C40" s="7">
+        <v>8</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="7">
+        <v>4</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="7">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="7">
+        <v>6</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>5</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>6</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C50" s="5">
         <v>1</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/doc/exercicios/gabarito/Gabarito-treina-sql-i.xlsx
+++ b/doc/exercicios/gabarito/Gabarito-treina-sql-i.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Exercicios" sheetId="1" r:id="rId1"/>
+    <sheet name="RankingPop-vs-Cidade" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="500">
   <si>
     <t>Capítulo</t>
   </si>
@@ -634,9 +635,6 @@
 */</t>
   </si>
   <si>
-    <t>Concatenação no Oracle vs SQLServer</t>
-  </si>
-  <si>
     <t>Depois ele quis saber para quantas pessoas cada gestor era responsável em cada país. E depois destas perguntas vieram muitas outras.</t>
   </si>
   <si>
@@ -823,17 +821,6 @@
     <t>Oracle, SQLServer, Postgres, MySQL, MariaDB, DB2, H2SQL e MongoDB</t>
   </si>
   <si>
-    <t>Faça um modelo de dados e ao final gere o esquema em uma base de dados a sua escolha que atenda o seguinte negócio:
-1. Uma Pessoa pode ser Física ou Jurídica
-2. Toda Pessoa tem um nome , endereço e telefone para contato
-3. Toda Pessoa Física tem um CPF e um RG além de data de nascimento
-4. Toda Pessoa Jurídica tem um CNPJ e uma IE (inscrição estadual)
-5. Uma Pessoa pode ser Cliente
-6. Um Cliente pode fazer muitos Pedidos de Vendas
-7. Um Pedido de Venda é de um único Cliente
-8. Um Pedido de Venda possui data do pedido, cliente, status ( aberto, cancelado, aprovado, faturado ), valor total e descricao dos serviços solicitados.</t>
-  </si>
-  <si>
     <t>/* SQLSERVER */
 SELECT FirstName + ' ' + LastName AS Name,
        CONCAT(FirstName, ' ', LastName ) AS Name_Concat
@@ -885,10 +872,6 @@
 Av. Brasil, 442          Av. Brasil       442
 Rua do Paço, 67          Rua do Paço      67
 */</t>
-  </si>
-  <si>
-    <t>O vice presidete de vendas disse que não quer mais receber relatórios com primeiro nome e último nome separados. Pediu para que você montasse uma consulta com empregados, com o nome completo (FIrstName  LastName). 
-Faça o mesmo comando em cada uma das bases de dados. Comente algo a respeito.</t>
   </si>
   <si>
     <t>O depto. administrativo da NorthWind  no Brasil está fazendo um trabalho de redução de custos de telefonia e pediu para você uma consulta dos DDD's das cidades no Brasil dos clientes. Monte esta consulta.
@@ -940,13 +923,6 @@
     <t>LIKE '%restaurant%' CASE IN/SENSITIVE</t>
   </si>
   <si>
-    <t>SELECT COALESCE(Region, Country), CompanyName
-FROM   Customers
-ORDER  BY 1,2;
-/*
-*/</t>
-  </si>
-  <si>
     <t>O depto. de vendas quer tirar um relatório de clientes organizado (ordenado) por região (region, companyname) porem há muitos clientes com região nula. Você foi solicitado a ajustar a quey do relatório de forma que quando a região for nula, preencher com o nome do PAIS.
 b) Faça o mesmo comando em cada uma das bases de dados Oracle, PostgreSQL e MySQL. Comente algo a respeito.</t>
   </si>
@@ -992,12 +968,1139 @@
 Total_PriceInStock:  74050,85
 */</t>
   </si>
+  <si>
+    <t> São Paulo</t>
+  </si>
+  <si>
+    <t> Leme</t>
+  </si>
+  <si>
+    <t> Rio de Janeiro</t>
+  </si>
+  <si>
+    <t> Japeri</t>
+  </si>
+  <si>
+    <t> Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t> São Gonçalo do Amarante</t>
+  </si>
+  <si>
+    <t> Minas Gerais</t>
+  </si>
+  <si>
+    <t> Lavras</t>
+  </si>
+  <si>
+    <t> Goiás</t>
+  </si>
+  <si>
+    <t> Catalão</t>
+  </si>
+  <si>
+    <t> Paulínia</t>
+  </si>
+  <si>
+    <t> Itumbiara</t>
+  </si>
+  <si>
+    <t> Ceará</t>
+  </si>
+  <si>
+    <t> Iguatu</t>
+  </si>
+  <si>
+    <t> Assis</t>
+  </si>
+  <si>
+    <t> Pará</t>
+  </si>
+  <si>
+    <t> Tailândia</t>
+  </si>
+  <si>
+    <t> Bahia</t>
+  </si>
+  <si>
+    <t> Santo Antônio de Jesus</t>
+  </si>
+  <si>
+    <t> Maranhão</t>
+  </si>
+  <si>
+    <t> Bacabal</t>
+  </si>
+  <si>
+    <t> Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t> Erechim</t>
+  </si>
+  <si>
+    <t> Sergipe</t>
+  </si>
+  <si>
+    <t> Lagarto</t>
+  </si>
+  <si>
+    <t> Araxá</t>
+  </si>
+  <si>
+    <t> Santa Catarina</t>
+  </si>
+  <si>
+    <t> Tubarão</t>
+  </si>
+  <si>
+    <t> Ituiutaba</t>
+  </si>
+  <si>
+    <t> Paraná</t>
+  </si>
+  <si>
+    <t> Cambé</t>
+  </si>
+  <si>
+    <t> Senador Canedo</t>
+  </si>
+  <si>
+    <t> Pernambuco</t>
+  </si>
+  <si>
+    <t> Santa Cruz do Capibaribe</t>
+  </si>
+  <si>
+    <t> Rondônia</t>
+  </si>
+  <si>
+    <t> Ariquemes</t>
+  </si>
+  <si>
+    <t> Piraquara</t>
+  </si>
+  <si>
+    <t> Paraíba</t>
+  </si>
+  <si>
+    <t> Patos</t>
+  </si>
+  <si>
+    <t> Muriaé</t>
+  </si>
+  <si>
+    <t> Umuarama</t>
+  </si>
+  <si>
+    <t> Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t> Corumbá</t>
+  </si>
+  <si>
+    <t> Novo Gama</t>
+  </si>
+  <si>
+    <t> Paragominas</t>
+  </si>
+  <si>
+    <t> Coronel Fabriciano</t>
+  </si>
+  <si>
+    <t> Tucuruí</t>
+  </si>
+  <si>
+    <t> Ourinhos</t>
+  </si>
+  <si>
+    <t> Açailândia</t>
+  </si>
+  <si>
+    <t> Altamira</t>
+  </si>
+  <si>
+    <t> São Lourenço da Mata</t>
+  </si>
+  <si>
+    <t> Ubá</t>
+  </si>
+  <si>
+    <t> Amazonas</t>
+  </si>
+  <si>
+    <t> Parintins</t>
+  </si>
+  <si>
+    <t> Passos</t>
+  </si>
+  <si>
+    <t> Bento Gonçalves</t>
+  </si>
+  <si>
+    <t> Eunápolis</t>
+  </si>
+  <si>
+    <t> Almirante Tamandaré</t>
+  </si>
+  <si>
+    <t> Igarassu</t>
+  </si>
+  <si>
+    <t> Amapá</t>
+  </si>
+  <si>
+    <t> Santana</t>
+  </si>
+  <si>
+    <t> Poá</t>
+  </si>
+  <si>
+    <t> Formosa</t>
+  </si>
+  <si>
+    <t> Salto</t>
+  </si>
+  <si>
+    <t> Itatiba</t>
+  </si>
+  <si>
+    <t> Caraguatatuba</t>
+  </si>
+  <si>
+    <t> Três Lagoas</t>
+  </si>
+  <si>
+    <t> Araguari</t>
+  </si>
+  <si>
+    <t> Arapongas</t>
+  </si>
+  <si>
+    <t> Várzea Paulista</t>
+  </si>
+  <si>
+    <t> Tatuí</t>
+  </si>
+  <si>
+    <t> Itabira</t>
+  </si>
+  <si>
+    <t> Votorantim</t>
+  </si>
+  <si>
+    <t> Guaratinguetá</t>
+  </si>
+  <si>
+    <t> Barretos</t>
+  </si>
+  <si>
+    <t> Catanduva</t>
+  </si>
+  <si>
+    <t> Birigui</t>
+  </si>
+  <si>
+    <t> Paulo Afonso</t>
+  </si>
+  <si>
+    <t> Codó</t>
+  </si>
+  <si>
+    <t> Barcarena</t>
+  </si>
+  <si>
+    <t> Trindade</t>
+  </si>
+  <si>
+    <t> Jandira</t>
+  </si>
+  <si>
+    <t> Ribeirão Pires</t>
+  </si>
+  <si>
+    <t> Bagé</t>
+  </si>
+  <si>
+    <t> Vespasiano</t>
+  </si>
+  <si>
+    <t> Itaguaí</t>
+  </si>
+  <si>
+    <t> Paço do Lumiar</t>
+  </si>
+  <si>
+    <t> Sertãozinho</t>
+  </si>
+  <si>
+    <t> Espírito Santo</t>
+  </si>
+  <si>
+    <t> Guarapari</t>
+  </si>
+  <si>
+    <t> Valinhos</t>
+  </si>
+  <si>
+    <t> Bragança</t>
+  </si>
+  <si>
+    <t> Colatina</t>
+  </si>
+  <si>
+    <t> São Félix do Xingu</t>
+  </si>
+  <si>
+    <t> Maranguape</t>
+  </si>
+  <si>
+    <t> Araruama</t>
+  </si>
+  <si>
+    <t> Resende</t>
+  </si>
+  <si>
+    <t> Campo Largo</t>
+  </si>
+  <si>
+    <t> Cachoeirinha</t>
+  </si>
+  <si>
+    <t> Conselheiro Lafaiete</t>
+  </si>
+  <si>
+    <t> Santa Cruz do Sul</t>
+  </si>
+  <si>
+    <t> Itapipoca</t>
+  </si>
+  <si>
+    <t> Marituba</t>
+  </si>
+  <si>
+    <t> São Mateus</t>
+  </si>
+  <si>
+    <t> Cubatão</t>
+  </si>
+  <si>
+    <t> Brusque</t>
+  </si>
+  <si>
+    <t> Pinhais</t>
+  </si>
+  <si>
+    <t> Uruguaiana</t>
+  </si>
+  <si>
+    <t> Araras</t>
+  </si>
+  <si>
+    <t> Crato</t>
+  </si>
+  <si>
+    <t> Ji-Paraná</t>
+  </si>
+  <si>
+    <t> Apucarana</t>
+  </si>
+  <si>
+    <t> Balneário Camboriú</t>
+  </si>
+  <si>
+    <t> Santana de Parnaíba</t>
+  </si>
+  <si>
+    <t> Cametá</t>
+  </si>
+  <si>
+    <t> Varginha</t>
+  </si>
+  <si>
+    <t> Toledo</t>
+  </si>
+  <si>
+    <t> Mato Grosso</t>
+  </si>
+  <si>
+    <t> Sinop</t>
+  </si>
+  <si>
+    <t> Sabará</t>
+  </si>
+  <si>
+    <t> Simões Filho</t>
+  </si>
+  <si>
+    <t> Barbacena</t>
+  </si>
+  <si>
+    <t> Santa Rita</t>
+  </si>
+  <si>
+    <t> Araucária</t>
+  </si>
+  <si>
+    <t> Vitória de Santo Antão</t>
+  </si>
+  <si>
+    <t> Garanhuns</t>
+  </si>
+  <si>
+    <t> Sapucaia do Sul</t>
+  </si>
+  <si>
+    <t> Atibaia</t>
+  </si>
+  <si>
+    <t> Rio das Ostras</t>
+  </si>
+  <si>
+    <t> Teófilo Otoni</t>
+  </si>
+  <si>
+    <t> Botucatu</t>
+  </si>
+  <si>
+    <t> Queimados</t>
+  </si>
+  <si>
+    <t> Jaú</t>
+  </si>
+  <si>
+    <t> Pouso Alegre</t>
+  </si>
+  <si>
+    <t> Porto Seguro</t>
+  </si>
+  <si>
+    <t>Mogi Guaçu</t>
+  </si>
+  <si>
+    <t> Franco da Rocha</t>
+  </si>
+  <si>
+    <t> Piauí</t>
+  </si>
+  <si>
+    <t> Parnaíba</t>
+  </si>
+  <si>
+    <t> Patos de Minas</t>
+  </si>
+  <si>
+    <t> Paranaguá</t>
+  </si>
+  <si>
+    <t> Maricá</t>
+  </si>
+  <si>
+    <t> Abaetetuba</t>
+  </si>
+  <si>
+    <t> Alagoinhas</t>
+  </si>
+  <si>
+    <t> Camaragibe</t>
+  </si>
+  <si>
+    <t> Barreiras</t>
+  </si>
+  <si>
+    <t> Nilópolis</t>
+  </si>
+  <si>
+    <t> Lages</t>
+  </si>
+  <si>
+    <t> Valparaíso de Goiás</t>
+  </si>
+  <si>
+    <t> São Caetano do Sul</t>
+  </si>
+  <si>
+    <t> Itapetininga</t>
+  </si>
+  <si>
+    <t> Teixeira de Freitas</t>
+  </si>
+  <si>
+    <t> Jequié</t>
+  </si>
+  <si>
+    <t> Caxias</t>
+  </si>
+  <si>
+    <t> Pindamonhangaba</t>
+  </si>
+  <si>
+    <t> Bragança Paulista</t>
+  </si>
+  <si>
+    <t> Palhoça</t>
+  </si>
+  <si>
+    <t> Poços de Caldas</t>
+  </si>
+  <si>
+    <t> Timon</t>
+  </si>
+  <si>
+    <t> Linhares</t>
+  </si>
+  <si>
+    <t> Itu</t>
+  </si>
+  <si>
+    <t> Jaraguá do Sul</t>
+  </si>
+  <si>
+    <t> Itapecerica da Serra</t>
+  </si>
+  <si>
+    <t> Mesquita</t>
+  </si>
+  <si>
+    <t> Francisco Morato</t>
+  </si>
+  <si>
+    <t> Tocantins</t>
+  </si>
+  <si>
+    <t> Araguaína</t>
+  </si>
+  <si>
+    <t> Teresópolis</t>
+  </si>
+  <si>
+    <t> Ilhéus</t>
+  </si>
+  <si>
+    <t>  165</t>
+  </si>
+  <si>
+    <t> São José de Ribamar</t>
+  </si>
+  <si>
+    <t>  164</t>
+  </si>
+  <si>
+    <t> Ibirité</t>
+  </si>
+  <si>
+    <t> Barra Mansa</t>
+  </si>
+  <si>
+    <t> Guarapuava</t>
+  </si>
+  <si>
+    <t> Nossa Senhora do Socorro</t>
+  </si>
+  <si>
+    <t> Nova Friburgo</t>
+  </si>
+  <si>
+    <t> Ferraz de Vasconcelos</t>
+  </si>
+  <si>
+    <t> Santa Bárbara do Oeste</t>
+  </si>
+  <si>
+    <t> Angra dos Reis</t>
+  </si>
+  <si>
+    <t> Araçatuba</t>
+  </si>
+  <si>
+    <t> Castanhal</t>
+  </si>
+  <si>
+    <t> Águas Lindas de Goiás</t>
+  </si>
+  <si>
+    <t> Lauro de Freitas</t>
+  </si>
+  <si>
+    <t> Passo Fundo</t>
+  </si>
+  <si>
+    <t> Luziânia</t>
+  </si>
+  <si>
+    <t> Parauapebas</t>
+  </si>
+  <si>
+    <t> Rio Claro</t>
+  </si>
+  <si>
+    <t> Cabo de Santo Agostinho</t>
+  </si>
+  <si>
+    <t> Sobral</t>
+  </si>
+  <si>
+    <t> Alvorada</t>
+  </si>
+  <si>
+    <t> Rio Grande</t>
+  </si>
+  <si>
+    <t> Criciúma</t>
+  </si>
+  <si>
+    <t> Cachoeiro de Itapemirim</t>
+  </si>
+  <si>
+    <t> Itajaí</t>
+  </si>
+  <si>
+    <t> Chapecó</t>
+  </si>
+  <si>
+    <t> Cabo Frio</t>
+  </si>
+  <si>
+    <t> Rio Verde</t>
+  </si>
+  <si>
+    <t> Dourados</t>
+  </si>
+  <si>
+    <t> Santa Luzia</t>
+  </si>
+  <si>
+    <t> Itabuna</t>
+  </si>
+  <si>
+    <t> Juazeiro</t>
+  </si>
+  <si>
+    <t> Hortolândia</t>
+  </si>
+  <si>
+    <t> Rondonópolis</t>
+  </si>
+  <si>
+    <t>Maracanaú</t>
+  </si>
+  <si>
+    <t> Presidente Prudente</t>
+  </si>
+  <si>
+    <t> Itapevi</t>
+  </si>
+  <si>
+    <t> Jacareí</t>
+  </si>
+  <si>
+    <t> Araraquara</t>
+  </si>
+  <si>
+    <t> São Leopoldo</t>
+  </si>
+  <si>
+    <t> Itaboraí</t>
+  </si>
+  <si>
+    <t> Americana</t>
+  </si>
+  <si>
+    <t> Alagoas</t>
+  </si>
+  <si>
+    <t> Arapiraca</t>
+  </si>
+  <si>
+    <t> Divinópolis</t>
+  </si>
+  <si>
+    <t> Marília</t>
+  </si>
+  <si>
+    <t> Sete Lagoas</t>
+  </si>
+  <si>
+    <t> Colombo</t>
+  </si>
+  <si>
+    <t> Magé</t>
+  </si>
+  <si>
+    <t> Cotia</t>
+  </si>
+  <si>
+    <t> Indaiatuba</t>
+  </si>
+  <si>
+    <t> São José</t>
+  </si>
+  <si>
+    <t> Macaé</t>
+  </si>
+  <si>
+    <t> São Carlos</t>
+  </si>
+  <si>
+    <t> Novo Hamburgo</t>
+  </si>
+  <si>
+    <t> Viamão</t>
+  </si>
+  <si>
+    <t> Imperatriz</t>
+  </si>
+  <si>
+    <t> Parnamirim</t>
+  </si>
+  <si>
+    <t> Ipatinga</t>
+  </si>
+  <si>
+    <t> Foz do Iguaçu</t>
+  </si>
+  <si>
+    <t> Volta Redonda</t>
+  </si>
+  <si>
+    <t> Embu das Artes</t>
+  </si>
+  <si>
+    <t> Barueri</t>
+  </si>
+  <si>
+    <t> Juazeiro do Norte</t>
+  </si>
+  <si>
+    <t> Marabá</t>
+  </si>
+  <si>
+    <t> Sumaré</t>
+  </si>
+  <si>
+    <t> Várzea Grande</t>
+  </si>
+  <si>
+    <t> Gravataí</t>
+  </si>
+  <si>
+    <t> Taboão da Serra</t>
+  </si>
+  <si>
+    <t> Santa Maria</t>
+  </si>
+  <si>
+    <t> Governador Valadares</t>
+  </si>
+  <si>
+    <t> Palmas</t>
+  </si>
+  <si>
+    <t> Suzano</t>
+  </si>
+  <si>
+    <t> Mossoró</t>
+  </si>
+  <si>
+    <t> Santarém</t>
+  </si>
+  <si>
+    <t> Camaçari</t>
+  </si>
+  <si>
+    <t> Petrópolis</t>
+  </si>
+  <si>
+    <t> Limeira</t>
+  </si>
+  <si>
+    <t> São José dos Pinhais</t>
+  </si>
+  <si>
+    <t> Taubaté</t>
+  </si>
+  <si>
+    <t> Praia Grande</t>
+  </si>
+  <si>
+    <t> Guarujá</t>
+  </si>
+  <si>
+    <t> Cascavel</t>
+  </si>
+  <si>
+    <t> Uberaba</t>
+  </si>
+  <si>
+    <t> Paulista</t>
+  </si>
+  <si>
+    <t> Ribeirão das Neves</t>
+  </si>
+  <si>
+    <t> Roraima</t>
+  </si>
+  <si>
+    <t> Boa Vista</t>
+  </si>
+  <si>
+    <t> Petrolina</t>
+  </si>
+  <si>
+    <t> Canoas</t>
+  </si>
+  <si>
+    <t> Ponta Grossa</t>
+  </si>
+  <si>
+    <t> Pelotas</t>
+  </si>
+  <si>
+    <t> Franca</t>
+  </si>
+  <si>
+    <t> Blumenau</t>
+  </si>
+  <si>
+    <t> Vitória da Conquista</t>
+  </si>
+  <si>
+    <t> Caruaru</t>
+  </si>
+  <si>
+    <t> São Vicente</t>
+  </si>
+  <si>
+    <t> Itaquaquecetuba</t>
+  </si>
+  <si>
+    <t> Caucaia</t>
+  </si>
+  <si>
+    <t> Vitória</t>
+  </si>
+  <si>
+    <t> Bauru</t>
+  </si>
+  <si>
+    <t> Anápolis</t>
+  </si>
+  <si>
+    <t> Acre</t>
+  </si>
+  <si>
+    <t> Rio Branco</t>
+  </si>
+  <si>
+    <t> Cariacica</t>
+  </si>
+  <si>
+    <t> Olinda</t>
+  </si>
+  <si>
+    <t> Carapicuíba</t>
+  </si>
+  <si>
+    <t> Piracicaba</t>
+  </si>
+  <si>
+    <t> Montes Claros</t>
+  </si>
+  <si>
+    <t> Maringá</t>
+  </si>
+  <si>
+    <t> Jundiaí</t>
+  </si>
+  <si>
+    <t> Campina Grande</t>
+  </si>
+  <si>
+    <t> Diadema</t>
+  </si>
+  <si>
+    <t> Betim</t>
+  </si>
+  <si>
+    <t> Mogi das Cruzes</t>
+  </si>
+  <si>
+    <t> Santos</t>
+  </si>
+  <si>
+    <t> São José do Rio Preto</t>
+  </si>
+  <si>
+    <t> São João de Meriti</t>
+  </si>
+  <si>
+    <t> Mauá</t>
+  </si>
+  <si>
+    <t> Macapá</t>
+  </si>
+  <si>
+    <t> Caxias do Sul</t>
+  </si>
+  <si>
+    <t> Florianópolis</t>
+  </si>
+  <si>
+    <t> Vila Velha</t>
+  </si>
+  <si>
+    <t> Campos dos Goytacazes</t>
+  </si>
+  <si>
+    <t> Belford Roxo</t>
+  </si>
+  <si>
+    <t> Niterói</t>
+  </si>
+  <si>
+    <t> Serra</t>
+  </si>
+  <si>
+    <t> Ananindeua</t>
+  </si>
+  <si>
+    <t> Porto Velho</t>
+  </si>
+  <si>
+    <t> Aparecida de Goiânia</t>
+  </si>
+  <si>
+    <t> Londrina</t>
+  </si>
+  <si>
+    <t> Juiz de Fora</t>
+  </si>
+  <si>
+    <t> Joinville</t>
+  </si>
+  <si>
+    <t> Cuiabá</t>
+  </si>
+  <si>
+    <t> Feira de Santana</t>
+  </si>
+  <si>
+    <t> Aracaju</t>
+  </si>
+  <si>
+    <t> Contagem</t>
+  </si>
+  <si>
+    <t> Sorocaba</t>
+  </si>
+  <si>
+    <t> Uberlândia</t>
+  </si>
+  <si>
+    <t> Ribeirão Preto</t>
+  </si>
+  <si>
+    <t> Jaboatão dos Guararapes</t>
+  </si>
+  <si>
+    <t> Osasco</t>
+  </si>
+  <si>
+    <t> São José dos Campos</t>
+  </si>
+  <si>
+    <t> Santo André</t>
+  </si>
+  <si>
+    <t> Nova Iguaçu</t>
+  </si>
+  <si>
+    <t> João Pessoa</t>
+  </si>
+  <si>
+    <t> São Bernardo do Campo</t>
+  </si>
+  <si>
+    <t> Teresina</t>
+  </si>
+  <si>
+    <t> Campo Grande</t>
+  </si>
+  <si>
+    <t> Natal</t>
+  </si>
+  <si>
+    <t> Duque de Caxias</t>
+  </si>
+  <si>
+    <t> Maceió</t>
+  </si>
+  <si>
+    <t> São Gonçalo</t>
+  </si>
+  <si>
+    <t> São Luís</t>
+  </si>
+  <si>
+    <t> Campinas</t>
+  </si>
+  <si>
+    <t> Guarulhos</t>
+  </si>
+  <si>
+    <t> Belém</t>
+  </si>
+  <si>
+    <t> Goiânia</t>
+  </si>
+  <si>
+    <t> Porto Alegre</t>
+  </si>
+  <si>
+    <t> Recife</t>
+  </si>
+  <si>
+    <t> Curitiba</t>
+  </si>
+  <si>
+    <t> Manaus</t>
+  </si>
+  <si>
+    <t> Belo Horizonte</t>
+  </si>
+  <si>
+    <t> Fortaleza</t>
+  </si>
+  <si>
+    <t> Salvador</t>
+  </si>
+  <si>
+    <t> Distrito Federal</t>
+  </si>
+  <si>
+    <t> Brasília</t>
+  </si>
+  <si>
+    <t>Populacao</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Posicao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* SQLSERVER, POSTGRESQL, MYSQL */
+SELECT COALESCE(Region, Country), CompanyName
+FROM   Customers
+ORDER  BY 1,2;
+/* ORACLE */
+SELECT NVL(Region, Country), CompanyName
+FROM   Customers
+ORDER  BY 1,2;
+</t>
+  </si>
+  <si>
+    <t>O vice presidente de vendas disse que não quer mais receber relatórios com primeiro nome e último nome separados. Pediu para que você montasse uma consulta com empregados, com o nome completo (FIrstName  LastName). 
+Faça o mesmo comando em cada uma das bases de dados. Comente algo a respeito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O depto. financeiro financeiro solicitou a você que montasse um relatório com  previsão de fluxo de caixa de recebimento das vendas (requiredDate), com o valor líquido (Order Itens.quantity * unit_price - discout) agrupados em ordem crescente por dia, mostrando o dia da semana e por nome do cliente (Customer), porque não interessa ao financeiro todos os detalhe do pedido tais como produto, empregado que fez a venda, identifiação do pedido, etc. O relatório ficaria assim:
+RequiredDate DiaDaSemana CompanyName               VlrLiquido
+------------ ----------- ------------------------- ----------
+1996-07-24   Qua         Hanari Carnes               1.444,80
+1996-08-01   Qui         Vins et alcools Chevalier     440,00
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* SQLSERVER */
+SELECT o.RequiredDate,
+    CASE 
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 1 THEN 'Dom'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 2 THEN 'Seg'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 3 THEN 'Ter'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 4 THEN 'Qua'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 5 THEN 'Qui'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 6 THEN 'Sex'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 7 THEN 'Sab'
+    END AS DiaDaSemana,
+    c.CompanyName,
+       ROUND( SUM( od.Quantity * od.UnitPrice - od.Discount ), 2) AS VlrLiquido
+FROM   [Orders] o
+INNER  JOIN [Order Details] od
+ON     od.OrderID = o.OrderID
+INNER  JOIN [Customers] c
+ON     c.CustomerID = o.CustomerID
+GROUP  BY o.RequiredDate,
+    CASE 
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 1 THEN 'Dom'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 2 THEN 'Seg'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 3 THEN 'Ter'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 4 THEN 'Qua'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 5 THEN 'Qui'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 6 THEN 'Sex'
+      WHEN DATEPART( WEEKDAY, o.RequiredDate) = 7 THEN 'Sab'
+    END,
+    c.CompanyName
+ORDER  BY 1, 2
+;
+</t>
+  </si>
+  <si>
+    <t>CASE ... WHEN THEN ELSE END, DATEPART, GROUP BY, SUM, ROUND</t>
+  </si>
+  <si>
+    <t>O depto. financeiro financeiro solicitou a você que elaborasse um estudo sobre o prazo de recebimento ( RequiredDate - OrderDate ). Apresente um relatório com o valor líquido (Order Itens.quantity * unit_price - discout) por prazo de recebimento que tem a maior participação nas vendas ?
+PrazoRecebimento    VlrLiquido
+---------------- -------------
+10                9.999.999,99
+30                8.888.888,88
+45                7.777.777,77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* SQLSERVER */
+SELECT DATEDIFF(DAY, o.OrderDate, o.RequiredDate) AS PrazoRecebimento,
+       ROUND( SUM( od.Quantity * od.UnitPrice - od.Discount ), 2) AS VlrLiquido
+FROM   [Orders] o
+INNER  JOIN [Order Details] od
+ON     od.OrderID = o.OrderID
+GROUP  BY DATEDIFF(DAY, o.OrderDate, o.RequiredDate)
+ORDER  BY 2 DESC
+;
+</t>
+  </si>
+  <si>
+    <t>DATEDIFF( ), GROUP BY, SUM( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crie uma tabela para receber os dados da planilha Excel com o ranking de população por cidade </t>
+  </si>
+  <si>
+    <t>Importe o conteúdo da planilha Excel com o ranking de população por cidade nos 4 bancos de dados: SQLServer, Oracle, PostgreSQL, MySQL. Se você demorar mais do que 5 min, então pegou o caminho incorreto.</t>
+  </si>
+  <si>
+    <t>Faça um modelo de dados e ao final gere o esquema em uma base de dados a sua escolha que atenda o seguinte negócio:
+* Uma Pessoa pode ser Física ou Jurídica
+* Toda Pessoa tem um nome , endereço e telefone para contato
+* Toda Pessoa Física tem um CPF e um RG além de data de nascimento
+* Toda Pessoa Jurídica tem um CNPJ e uma IE (inscrição estadual)
+* Uma Pessoa pode ser Cliente
+* Um Cliente pode fazer muitos Pedidos de Vendas
+* Um Pedido de Venda é de um único Cliente
+* Um Pedido de Venda possui data do pedido, cliente, status ( aberto, cancelado, aprovado, faturado ), valor total e descricao dos serviços solicitados.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,16 +2121,44 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1035,11 +2166,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1063,9 +2210,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1208,8 +2366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaExercicios" displayName="TabelaExercicios" ref="A1:F50" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaExercicios" displayName="TabelaExercicios" ref="A1:F53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F53"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#Cap" dataDxfId="5"/>
     <tableColumn id="6" name="Capítulo" dataDxfId="4"/>
@@ -1485,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1536,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1554,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -1588,7 +2746,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -1864,7 +3022,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>83</v>
@@ -1964,7 +3122,7 @@
         <v>59</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>87</v>
@@ -2181,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>110</v>
@@ -2201,13 +3359,13 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2221,13 +3379,13 @@
         <v>5</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="F37" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2241,13 +3399,13 @@
         <v>6</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2261,13 +3419,13 @@
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2281,13 +3439,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="F40" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2301,13 +3459,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>138</v>
+        <v>490</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2321,13 +3479,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2341,13 +3499,13 @@
         <v>3</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2361,13 +3519,13 @@
         <v>4</v>
       </c>
       <c r="D44" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2381,13 +3539,13 @@
         <v>5</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>144</v>
+        <v>489</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2401,13 +3559,13 @@
         <v>6</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2415,56 +3573,114 @@
         <v>26</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C47" s="7">
+        <v>7</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C48" s="7">
+        <v>8</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>5</v>
+      <c r="A49" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>131</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>6</v>
+      <c r="A50" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>111</v>
+        <v>497</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="7">
+        <v>2</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>5</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2473,4 +3689,5623 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E311"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="139.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="E1" s="9" t="str">
+        <f>"CREATE TABLE ranking_populacao_cidade ( posicao INTEGER, cidade VARCHAR(100), estado VARCHAR(100), populacao BIGINT);"</f>
+        <v>CREATE TABLE ranking_populacao_cidade ( posicao INTEGER, cidade VARCHAR(100), estado VARCHAR(100), populacao BIGINT);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="12">
+        <v>12106920</v>
+      </c>
+      <c r="E2" s="9" t="str">
+        <f t="shared" ref="E2:E65" si="0">"INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( "&amp;TEXT(A2,"#####0")&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', "&amp;TEXT(D2,"###########0")&amp;" );"</f>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 1, ' São Paulo', ' São Paulo', 12106920 );</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="12">
+        <v>6520266</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 2, ' Rio de Janeiro', ' Rio de Janeiro', 6520266 );</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3039444</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 3, ' Brasília', ' Distrito Federal', 3039444 );</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2953986</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 4, ' Salvador', ' Bahia', 2953986 );</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2627482</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 5, ' Fortaleza', ' Ceará', 2627482 );</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2523794</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 6, ' Belo Horizonte', ' Minas Gerais', 2523794 );</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2130264</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 7, ' Manaus', ' Amazonas', 2130264 );</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1908359</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 8, ' Curitiba', ' Paraná', 1908359 );</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1633697</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 9, ' Recife', ' Pernambuco', 1633697 );</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1484941</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 10, ' Porto Alegre', ' Rio Grande do Sul', 1484941 );</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1466105</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 11, ' Goiânia', ' Goiás', 1466105 );</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1452275</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 12, ' Belém', ' Pará', 1452275 );</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1349113</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 13, ' Guarulhos', ' São Paulo', 1349113 );</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1182429</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 14, ' Campinas', ' São Paulo', 1182429 );</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1091868</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 15, ' São Luís', ' Maranhão', 1091868 );</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1049826</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 16, ' São Gonçalo', ' Rio de Janeiro', 1049826 );</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1029129</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 17, ' Maceió', ' Alagoas', 1029129 );</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="12">
+        <v>890997</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 18, ' Duque de Caxias', ' Rio de Janeiro', 890997 );</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="12">
+        <v>885180</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 19, ' Natal', ' Rio Grande do Norte', 885180 );</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="12">
+        <v>874210</v>
+      </c>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 20, ' Campo Grande', ' Mato Grosso do Sul', 874210 );</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="12">
+        <v>850198</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 21, ' Teresina', ' Piauí', 850198 );</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="12">
+        <v>827437</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 22, ' São Bernardo do Campo', ' São Paulo', 827437 );</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="12">
+        <v>811598</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 23, ' João Pessoa', ' Paraíba', 811598 );</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="12">
+        <v>798647</v>
+      </c>
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 24, ' Nova Iguaçu', ' Rio de Janeiro', 798647 );</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="12">
+        <v>715231</v>
+      </c>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 25, ' Santo André', ' São Paulo', 715231 );</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="12">
+        <v>703219</v>
+      </c>
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 26, ' São José dos Campos', ' São Paulo', 703219 );</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="12">
+        <v>697886</v>
+      </c>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 27, ' Osasco', ' São Paulo', 697886 );</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="12">
+        <v>695956</v>
+      </c>
+      <c r="E29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 28, ' Jaboatão dos Guararapes', ' Pernambuco', 695956 );</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="12">
+        <v>682302</v>
+      </c>
+      <c r="E30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 29, ' Ribeirão Preto', ' São Paulo', 682302 );</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="12">
+        <v>676613</v>
+      </c>
+      <c r="E31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 30, ' Uberlândia', ' Minas Gerais', 676613 );</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="12">
+        <v>659871</v>
+      </c>
+      <c r="E32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 31, ' Sorocaba', ' São Paulo', 659871 );</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="12">
+        <v>658580</v>
+      </c>
+      <c r="E33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 32, ' Contagem', ' Minas Gerais', 658580 );</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="12">
+        <v>650106</v>
+      </c>
+      <c r="E34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 33, ' Aracaju', ' Sergipe', 650106 );</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="12">
+        <v>627477</v>
+      </c>
+      <c r="E35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 34, ' Feira de Santana', ' Bahia', 627477 );</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="12">
+        <v>590118</v>
+      </c>
+      <c r="E36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 35, ' Cuiabá', ' Mato Grosso', 590118 );</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="12">
+        <v>577077</v>
+      </c>
+      <c r="E37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 36, ' Joinville', ' Santa Catarina', 577077 );</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="12">
+        <v>563769</v>
+      </c>
+      <c r="E38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 37, ' Juiz de Fora', ' Minas Gerais', 563769 );</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="12">
+        <v>558439</v>
+      </c>
+      <c r="E39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 38, ' Londrina', ' Paraná', 558439 );</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="12">
+        <v>542090</v>
+      </c>
+      <c r="E40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 39, ' Aparecida de Goiânia', ' Goiás', 542090 );</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="12">
+        <v>519436</v>
+      </c>
+      <c r="E41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 40, ' Porto Velho', ' Rondônia', 519436 );</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="12">
+        <v>516057</v>
+      </c>
+      <c r="E42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 41, ' Ananindeua', ' Pará', 516057 );</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="12">
+        <v>502618</v>
+      </c>
+      <c r="E43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 42, ' Serra', ' Espírito Santo', 502618 );</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="12">
+        <v>499028</v>
+      </c>
+      <c r="E44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 43, ' Niterói', ' Rio de Janeiro', 499028 );</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="12">
+        <v>495783</v>
+      </c>
+      <c r="E45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 44, ' Belford Roxo', ' Rio de Janeiro', 495783 );</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="12">
+        <v>490288</v>
+      </c>
+      <c r="E46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 45, ' Campos dos Goytacazes', ' Rio de Janeiro', 490288 );</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="12">
+        <v>486388</v>
+      </c>
+      <c r="E47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 46, ' Vila Velha', ' Espírito Santo', 486388 );</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="12">
+        <v>485838</v>
+      </c>
+      <c r="E48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 47, ' Florianópolis', ' Santa Catarina', 485838 );</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="12">
+        <v>483377</v>
+      </c>
+      <c r="E49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 48, ' Caxias do Sul', ' Rio Grande do Sul', 483377 );</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="12">
+        <v>474706</v>
+      </c>
+      <c r="E50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 49, ' Macapá', ' Amapá', 474706 );</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="12">
+        <v>462005</v>
+      </c>
+      <c r="E51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 50, ' Mauá', ' São Paulo', 462005 );</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="12">
+        <v>460461</v>
+      </c>
+      <c r="E52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 51, ' São João de Meriti', ' Rio de Janeiro', 460461 );</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="12">
+        <v>450657</v>
+      </c>
+      <c r="E53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 52, ' São José do Rio Preto', ' São Paulo', 450657 );</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="12">
+        <v>434742</v>
+      </c>
+      <c r="E54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 53, ' Santos', ' São Paulo', 434742 );</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="12">
+        <v>433901</v>
+      </c>
+      <c r="E55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 54, ' Mogi das Cruzes', ' São Paulo', 433901 );</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="12">
+        <v>427146</v>
+      </c>
+      <c r="E56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 55, ' Betim', ' Minas Gerais', 427146 );</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="12">
+        <v>417869</v>
+      </c>
+      <c r="E57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 56, ' Diadema', ' São Paulo', 417869 );</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="12">
+        <v>410332</v>
+      </c>
+      <c r="E58" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 57, ' Campina Grande', ' Paraíba', 410332 );</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="12">
+        <v>409497</v>
+      </c>
+      <c r="E59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 58, ' Jundiaí', ' São Paulo', 409497 );</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="12">
+        <v>406693</v>
+      </c>
+      <c r="E60" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 59, ' Maringá', ' Paraná', 406693 );</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="12">
+        <v>402027</v>
+      </c>
+      <c r="E61" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 60, ' Montes Claros', ' Minas Gerais', 402027 );</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="12">
+        <v>397322</v>
+      </c>
+      <c r="E62" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 61, ' Piracicaba', ' São Paulo', 397322 );</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="12">
+        <v>396587</v>
+      </c>
+      <c r="E63" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 62, ' Carapicuíba', ' São Paulo', 396587 );</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="12">
+        <v>390771</v>
+      </c>
+      <c r="E64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 63, ' Olinda', ' Pernambuco', 390771 );</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="12">
+        <v>387368</v>
+      </c>
+      <c r="E65" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 64, ' Cariacica', ' Espírito Santo', 387368 );</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D66" s="12">
+        <v>383443</v>
+      </c>
+      <c r="E66" s="9" t="str">
+        <f t="shared" ref="E66:E129" si="1">"INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( "&amp;TEXT(A66,"#####0")&amp;", '"&amp;B66&amp;"', '"&amp;C66&amp;"', "&amp;TEXT(D66,"###########0")&amp;" );"</f>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 65, ' Rio Branco', ' Acre', 383443 );</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="12">
+        <v>375142</v>
+      </c>
+      <c r="E67" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 66, ' Anápolis', ' Goiás', 375142 );</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="12">
+        <v>371690</v>
+      </c>
+      <c r="E68" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 67, ' Bauru', ' São Paulo', 371690 );</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" s="12">
+        <v>363140</v>
+      </c>
+      <c r="E69" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 68, ' Vitória', ' Espírito Santo', 363140 );</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="12">
+        <v>362223</v>
+      </c>
+      <c r="E70" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 69, ' Caucaia', ' Ceará', 362223 );</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="12">
+        <v>360657</v>
+      </c>
+      <c r="E71" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 70, ' Itaquaquecetuba', ' São Paulo', 360657 );</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" s="12">
+        <v>360380</v>
+      </c>
+      <c r="E72" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 71, ' São Vicente', ' São Paulo', 360380 );</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" s="12">
+        <v>356128</v>
+      </c>
+      <c r="E73" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 72, ' Caruaru', ' Pernambuco', 356128 );</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="12">
+        <v>348718</v>
+      </c>
+      <c r="E74" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 73, ' Vitória da Conquista', ' Bahia', 348718 );</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="12">
+        <v>348513</v>
+      </c>
+      <c r="E75" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 74, ' Blumenau', ' Santa Catarina', 348513 );</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="12">
+        <v>347237</v>
+      </c>
+      <c r="E76" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 75, ' Franca', ' São Paulo', 347237 );</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="12">
+        <v>344385</v>
+      </c>
+      <c r="E77" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 76, ' Pelotas', ' Rio Grande do Sul', 344385 );</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="12">
+        <v>344332</v>
+      </c>
+      <c r="E78" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 77, ' Ponta Grossa', ' Paraná', 344332 );</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>78</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="12">
+        <v>343853</v>
+      </c>
+      <c r="E79" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 78, ' Canoas', ' Rio Grande do Sul', 343853 );</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>79</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="12">
+        <v>343219</v>
+      </c>
+      <c r="E80" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 79, ' Petrolina', ' Pernambuco', 343219 );</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>80</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D81" s="12">
+        <v>332020</v>
+      </c>
+      <c r="E81" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 80, ' Boa Vista', ' Roraima', 332020 );</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>81</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="12">
+        <v>328871</v>
+      </c>
+      <c r="E82" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 81, ' Ribeirão das Neves', ' Minas Gerais', 328871 );</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>82</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="12">
+        <v>328353</v>
+      </c>
+      <c r="E83" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 82, ' Paulista', ' Pernambuco', 328353 );</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>83</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="12">
+        <v>328272</v>
+      </c>
+      <c r="E84" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 83, ' Uberaba', ' Minas Gerais', 328272 );</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>84</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="12">
+        <v>319608</v>
+      </c>
+      <c r="E85" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 84, ' Cascavel', ' Paraná', 319608 );</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>85</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="12">
+        <v>315563</v>
+      </c>
+      <c r="E86" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 85, ' Guarujá', ' São Paulo', 315563 );</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>86</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="12">
+        <v>310024</v>
+      </c>
+      <c r="E87" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 86, ' Praia Grande', ' São Paulo', 310024 );</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>87</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="12">
+        <v>307953</v>
+      </c>
+      <c r="E88" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 87, ' Taubaté', ' São Paulo', 307953 );</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>88</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="12">
+        <v>307530</v>
+      </c>
+      <c r="E89" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 88, ' São José dos Pinhais', ' Paraná', 307530 );</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>89</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="12">
+        <v>300911</v>
+      </c>
+      <c r="E90" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 89, ' Limeira', ' São Paulo', 300911 );</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>90</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="12">
+        <v>298235</v>
+      </c>
+      <c r="E91" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 90, ' Petrópolis', ' Rio de Janeiro', 298235 );</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>91</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="12">
+        <v>296893</v>
+      </c>
+      <c r="E92" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 91, ' Camaçari', ' Bahia', 296893 );</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>92</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" s="12">
+        <v>296302</v>
+      </c>
+      <c r="E93" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 92, ' Santarém', ' Pará', 296302 );</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>93</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" s="12">
+        <v>295619</v>
+      </c>
+      <c r="E94" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 93, ' Mossoró', ' Rio Grande do Norte', 295619 );</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>94</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95" s="12">
+        <v>290769</v>
+      </c>
+      <c r="E95" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 94, ' Suzano', ' São Paulo', 290769 );</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>95</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D96" s="12">
+        <v>286787</v>
+      </c>
+      <c r="E96" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 95, ' Palmas', ' Tocantins', 286787 );</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>96</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="12">
+        <v>279665</v>
+      </c>
+      <c r="E97" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 96, ' Governador Valadares', ' Minas Gerais', 279665 );</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>97</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="12">
+        <v>280901</v>
+      </c>
+      <c r="E98" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 97, ' Santa Maria', ' Rio Grande do Sul', 280901 );</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>98</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99" s="12">
+        <v>279634</v>
+      </c>
+      <c r="E99" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 98, ' Taboão da Serra', ' São Paulo', 279634 );</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>99</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" s="12">
+        <v>275146</v>
+      </c>
+      <c r="E100" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 99, ' Gravataí', ' Rio Grande do Sul', 275146 );</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>100</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D101" s="12">
+        <v>274013</v>
+      </c>
+      <c r="E101" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 100, ' Várzea Grande', ' Mato Grosso', 274013 );</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>101</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D102" s="12">
+        <v>273007</v>
+      </c>
+      <c r="E102" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 101, ' Sumaré', ' São Paulo', 273007 );</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <v>102</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103" s="12">
+        <v>271594</v>
+      </c>
+      <c r="E103" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 102, ' Marabá', ' Pará', 271594 );</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>103</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" s="12">
+        <v>270383</v>
+      </c>
+      <c r="E104" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 103, ' Juazeiro do Norte', ' Ceará', 270383 );</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>104</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D105" s="12">
+        <v>267534</v>
+      </c>
+      <c r="E105" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 104, ' Barueri', ' São Paulo', 267534 );</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <v>105</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" s="12">
+        <v>267054</v>
+      </c>
+      <c r="E106" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 105, ' Embu das Artes', ' São Paulo', 267054 );</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
+        <v>107</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="12">
+        <v>265201</v>
+      </c>
+      <c r="E107" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 107, ' Volta Redonda', ' Rio de Janeiro', 265201 );</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <v>106</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="12">
+        <v>264044</v>
+      </c>
+      <c r="E108" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 106, ' Foz do Iguaçu', ' Paraná', 264044 );</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>108</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="12">
+        <v>261203</v>
+      </c>
+      <c r="E109" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 108, ' Ipatinga', ' Minas Gerais', 261203 );</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>109</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" s="12">
+        <v>254709</v>
+      </c>
+      <c r="E110" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 109, ' Parnamirim', ' Rio Grande do Norte', 254709 );</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>110</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="12">
+        <v>254569</v>
+      </c>
+      <c r="E111" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 110, ' Imperatriz', ' Maranhão', 254569 );</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>111</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="12">
+        <v>253717</v>
+      </c>
+      <c r="E112" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 111, ' Viamão', ' Rio Grande do Sul', 253717 );</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>112</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" s="12">
+        <v>249508</v>
+      </c>
+      <c r="E113" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 112, ' Novo Hamburgo', ' Rio Grande do Sul', 249508 );</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>113</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D114" s="12">
+        <v>246088</v>
+      </c>
+      <c r="E114" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 113, ' São Carlos', ' São Paulo', 246088 );</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>114</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="12">
+        <v>244139</v>
+      </c>
+      <c r="E115" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 114, ' Macaé', ' Rio de Janeiro', 244139 );</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>115</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116" s="12">
+        <v>239718</v>
+      </c>
+      <c r="E116" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 115, ' São José', ' Santa Catarina', 239718 );</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>116</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D117" s="12">
+        <v>239602</v>
+      </c>
+      <c r="E117" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 116, ' Indaiatuba', ' São Paulo', 239602 );</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>117</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D118" s="12">
+        <v>237750</v>
+      </c>
+      <c r="E118" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 117, ' Cotia', ' São Paulo', 237750 );</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>118</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D119" s="12">
+        <v>237420</v>
+      </c>
+      <c r="E119" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 118, ' Magé', ' Rio de Janeiro', 237420 );</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
+        <v>119</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" s="12">
+        <v>237402</v>
+      </c>
+      <c r="E120" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 119, ' Colombo', ' Paraná', 237402 );</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>120</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="12">
+        <v>236228</v>
+      </c>
+      <c r="E121" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 120, ' Sete Lagoas', ' Minas Gerais', 236228 );</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="10">
+        <v>121</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D122" s="12">
+        <v>235234</v>
+      </c>
+      <c r="E122" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 121, ' Marília', ' São Paulo', 235234 );</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="10">
+        <v>122</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="12">
+        <v>234937</v>
+      </c>
+      <c r="E123" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 122, ' Divinópolis', ' Minas Gerais', 234937 );</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="10">
+        <v>123</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D124" s="12">
+        <v>234185</v>
+      </c>
+      <c r="E124" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 123, ' Arapiraca', ' Alagoas', 234185 );</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="10">
+        <v>124</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D125" s="12">
+        <v>233868</v>
+      </c>
+      <c r="E125" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 124, ' Americana', ' São Paulo', 233868 );</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>125</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D126" s="12">
+        <v>232394</v>
+      </c>
+      <c r="E126" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 125, ' Itaboraí', ' Rio de Janeiro', 232394 );</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="10">
+        <v>126</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" s="12">
+        <v>230914</v>
+      </c>
+      <c r="E127" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 126, ' São Leopoldo', ' Rio Grande do Sul', 230914 );</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="10">
+        <v>127</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D128" s="12">
+        <v>230770</v>
+      </c>
+      <c r="E128" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 127, ' Araraquara', ' São Paulo', 230770 );</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="10">
+        <v>128</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D129" s="12">
+        <v>229851</v>
+      </c>
+      <c r="E129" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 128, ' Jacareí', ' São Paulo', 229851 );</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="10">
+        <v>129</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D130" s="12">
+        <v>229502</v>
+      </c>
+      <c r="E130" s="9" t="str">
+        <f t="shared" ref="E130:E193" si="2">"INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( "&amp;TEXT(A130,"#####0")&amp;", '"&amp;B130&amp;"', '"&amp;C130&amp;"', "&amp;TEXT(D130,"###########0")&amp;" );"</f>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 129, ' Itapevi', ' São Paulo', 229502 );</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="10">
+        <v>130</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D131" s="12">
+        <v>225271</v>
+      </c>
+      <c r="E131" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 130, ' Presidente Prudente', ' São Paulo', 225271 );</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
+        <v>131</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D132" s="12">
+        <v>224804</v>
+      </c>
+      <c r="E132" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 131, 'Maracanaú', ' Ceará', 224804 );</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="10">
+        <v>132</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D133" s="12">
+        <v>222316</v>
+      </c>
+      <c r="E133" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 132, ' Rondonópolis', ' Mato Grosso', 222316 );</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="10">
+        <v>133</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D134" s="12">
+        <v>222186</v>
+      </c>
+      <c r="E134" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 133, ' Hortolândia', ' São Paulo', 222186 );</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="10">
+        <v>134</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D135" s="12">
+        <v>221773</v>
+      </c>
+      <c r="E135" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 134, ' Juazeiro', ' Bahia', 221773 );</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>135</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" s="12">
+        <v>221046</v>
+      </c>
+      <c r="E136" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 135, ' Itabuna', ' Bahia', 221046 );</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="10">
+        <v>136</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" s="12">
+        <v>218897</v>
+      </c>
+      <c r="E137" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 136, ' Santa Luzia', ' Minas Gerais', 218897 );</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="10">
+        <v>137</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D138" s="12">
+        <v>218069</v>
+      </c>
+      <c r="E138" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 137, ' Dourados', ' Mato Grosso do Sul', 218069 );</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="10">
+        <v>138</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D139" s="12">
+        <v>217048</v>
+      </c>
+      <c r="E139" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 138, ' Rio Verde', ' Goiás', 217048 );</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="10">
+        <v>139</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D140" s="12">
+        <v>216030</v>
+      </c>
+      <c r="E140" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 139, ' Cabo Frio', ' Rio de Janeiro', 216030 );</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="10">
+        <v>140</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D141" s="12">
+        <v>213279</v>
+      </c>
+      <c r="E141" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 140, ' Chapecó', ' Santa Catarina', 213279 );</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="10">
+        <v>142</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D142" s="12">
+        <v>212615</v>
+      </c>
+      <c r="E142" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 142, ' Itajaí', ' Santa Catarina', 212615 );</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="10">
+        <v>141</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D143" s="12">
+        <v>211649</v>
+      </c>
+      <c r="E143" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 141, ' Cachoeiro de Itapemirim', ' Espírito Santo', 211649 );</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="10">
+        <v>142</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D144" s="12">
+        <v>211369</v>
+      </c>
+      <c r="E144" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 142, ' Criciúma', ' Santa Catarina', 211369 );</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="10">
+        <v>144</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D145" s="12">
+        <v>209378</v>
+      </c>
+      <c r="E145" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 144, ' Rio Grande', ' Rio Grande do Sul', 209378 );</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
+        <v>145</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D146" s="12">
+        <v>208177</v>
+      </c>
+      <c r="E146" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 145, ' Alvorada', ' Rio Grande do Sul', 208177 );</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="10">
+        <v>146</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D147" s="12">
+        <v>205529</v>
+      </c>
+      <c r="E147" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 146, ' Sobral', ' Ceará', 205529 );</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="10">
+        <v>147</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D148" s="12">
+        <v>204653</v>
+      </c>
+      <c r="E148" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 147, ' Cabo de Santo Agostinho', ' Pernambuco', 204653 );</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="10">
+        <v>148</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D149" s="12">
+        <v>202952</v>
+      </c>
+      <c r="E149" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 148, ' Rio Claro', ' São Paulo', 202952 );</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
+        <v>149</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" s="12">
+        <v>202356</v>
+      </c>
+      <c r="E150" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 149, ' Parauapebas', ' Pará', 202356 );</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="10">
+        <v>150</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D151" s="12">
+        <v>199615</v>
+      </c>
+      <c r="E151" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 150, ' Luziânia', ' Goiás', 199615 );</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="10">
+        <v>151</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D152" s="12">
+        <v>198799</v>
+      </c>
+      <c r="E152" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 151, ' Passo Fundo', ' Rio Grande do Sul', 198799 );</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="10">
+        <v>152</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D153" s="12">
+        <v>197636</v>
+      </c>
+      <c r="E153" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 152, ' Lauro de Freitas', ' Bahia', 197636 );</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="10">
+        <v>153</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154" s="12">
+        <v>195810</v>
+      </c>
+      <c r="E154" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 153, ' Águas Lindas de Goiás', ' Goiás', 195810 );</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="10">
+        <v>154</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155" s="12">
+        <v>195253</v>
+      </c>
+      <c r="E155" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 154, ' Castanhal', ' Pará', 195253 );</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="10">
+        <v>155</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D156" s="12">
+        <v>194874</v>
+      </c>
+      <c r="E156" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 155, ' Araçatuba', ' São Paulo', 194874 );</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="10">
+        <v>156</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D157" s="12">
+        <v>194619</v>
+      </c>
+      <c r="E157" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 156, ' Angra dos Reis', ' Rio de Janeiro', 194619 );</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="10">
+        <v>157</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D158" s="12">
+        <v>191889</v>
+      </c>
+      <c r="E158" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 157, ' Santa Bárbara do Oeste', ' São Paulo', 191889 );</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="10">
+        <v>158</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D159" s="12">
+        <v>188868</v>
+      </c>
+      <c r="E159" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 158, ' Ferraz de Vasconcelos', ' São Paulo', 188868 );</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="10">
+        <v>159</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D160" s="12">
+        <v>185381</v>
+      </c>
+      <c r="E160" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 159, ' Nova Friburgo', ' Rio de Janeiro', 185381 );</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="10">
+        <v>160</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D161" s="12">
+        <v>181928</v>
+      </c>
+      <c r="E161" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 160, ' Nossa Senhora do Socorro', ' Sergipe', 181928 );</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="10">
+        <v>161</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D162" s="12">
+        <v>180364</v>
+      </c>
+      <c r="E162" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 161, ' Guarapuava', ' Paraná', 180364 );</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="10">
+        <v>162</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D163" s="12">
+        <v>179451</v>
+      </c>
+      <c r="E163" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 162, ' Barra Mansa', ' Rio de Janeiro', 179451 );</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="10">
+        <v>163</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D164" s="12">
+        <v>177475</v>
+      </c>
+      <c r="E164" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 163, ' Ibirité', ' Minas Gerais', 177475 );</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165" s="12">
+        <v>176418</v>
+      </c>
+      <c r="E165" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES (   164, ' São José de Ribamar', ' Maranhão', 176418 );</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D166" s="12">
+        <v>176341</v>
+      </c>
+      <c r="E166" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES (   165, ' Ilhéus', ' Bahia', 176341 );</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="10">
+        <v>166</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D167" s="12">
+        <v>176060</v>
+      </c>
+      <c r="E167" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 166, ' Teresópolis', ' Rio de Janeiro', 176060 );</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="10">
+        <v>167</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D168" s="12">
+        <v>175960</v>
+      </c>
+      <c r="E168" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 167, ' Araguaína', ' Tocantins', 175960 );</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="10">
+        <v>168</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D169" s="12">
+        <v>171602</v>
+      </c>
+      <c r="E169" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 168, ' Francisco Morato', ' São Paulo', 171602 );</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="10">
+        <v>169</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D170" s="12">
+        <v>171280</v>
+      </c>
+      <c r="E170" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 169, ' Mesquita', ' Rio de Janeiro', 171280 );</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="10">
+        <v>170</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D171" s="12">
+        <v>170927</v>
+      </c>
+      <c r="E171" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 170, ' Itapecerica da Serra', ' São Paulo', 170927 );</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="10">
+        <v>171</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172" s="12">
+        <v>170835</v>
+      </c>
+      <c r="E172" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 171, ' Jaraguá do Sul', ' Santa Catarina', 170835 );</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="10">
+        <v>172</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D173" s="12">
+        <v>170157</v>
+      </c>
+      <c r="E173" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 172, ' Itu', ' São Paulo', 170157 );</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="10">
+        <v>173</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D174" s="12">
+        <v>169048</v>
+      </c>
+      <c r="E174" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 173, ' Linhares', ' Espírito Santo', 169048 );</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="10">
+        <v>174</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D175" s="12">
+        <v>167619</v>
+      </c>
+      <c r="E175" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 174, ' Timon', ' Maranhão', 167619 );</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="10">
+        <v>175</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D176" s="12">
+        <v>166085</v>
+      </c>
+      <c r="E176" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 175, ' Poços de Caldas', ' Minas Gerais', 166085 );</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="10">
+        <v>176</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D177" s="12">
+        <v>164926</v>
+      </c>
+      <c r="E177" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 176, ' Palhoça', ' Santa Catarina', 164926 );</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="10">
+        <v>177</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D178" s="12">
+        <v>164163</v>
+      </c>
+      <c r="E178" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 177, ' Bragança Paulista', ' São Paulo', 164163 );</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="10">
+        <v>178</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D179" s="12">
+        <v>164000</v>
+      </c>
+      <c r="E179" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 178, ' Pindamonhangaba', ' São Paulo', 164000 );</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="10">
+        <v>179</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D180" s="12">
+        <v>162657</v>
+      </c>
+      <c r="E180" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 179, ' Caxias', ' Maranhão', 162657 );</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="10">
+        <v>180</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D181" s="12">
+        <v>162209</v>
+      </c>
+      <c r="E181" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 180, ' Jequié', ' Bahia', 162209 );</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="10">
+        <v>181</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D182" s="12">
+        <v>161690</v>
+      </c>
+      <c r="E182" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 181, ' Teixeira de Freitas', ' Bahia', 161690 );</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="10">
+        <v>182</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D183" s="12">
+        <v>160070</v>
+      </c>
+      <c r="E183" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 182, ' Itapetininga', ' São Paulo', 160070 );</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="10">
+        <v>183</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D184" s="12">
+        <v>159608</v>
+      </c>
+      <c r="E184" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 183, ' São Caetano do Sul', ' São Paulo', 159608 );</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="10">
+        <v>184</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D185" s="12">
+        <v>159500</v>
+      </c>
+      <c r="E185" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 184, ' Valparaíso de Goiás', ' Goiás', 159500 );</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="10">
+        <v>185</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D186" s="12">
+        <v>158508</v>
+      </c>
+      <c r="E186" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 185, ' Lages', ' Santa Catarina', 158508 );</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="10">
+        <v>186</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D187" s="12">
+        <v>158329</v>
+      </c>
+      <c r="E187" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 186, ' Nilópolis', ' Rio de Janeiro', 158329 );</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="10">
+        <v>187</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D188" s="12">
+        <v>157638</v>
+      </c>
+      <c r="E188" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 187, ' Barreiras', ' Bahia', 157638 );</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="10">
+        <v>188</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D189" s="12">
+        <v>156361</v>
+      </c>
+      <c r="E189" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 188, ' Camaragibe', ' Pernambuco', 156361 );</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="10">
+        <v>189</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D190" s="12">
+        <v>155979</v>
+      </c>
+      <c r="E190" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 189, ' Alagoinhas', ' Bahia', 155979 );</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="10">
+        <v>190</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D191" s="12">
+        <v>153380</v>
+      </c>
+      <c r="E191" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 190, ' Abaetetuba', ' Pará', 153380 );</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="10">
+        <v>191</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D192" s="12">
+        <v>153008</v>
+      </c>
+      <c r="E192" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 191, ' Maricá', ' Rio de Janeiro', 153008 );</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="10">
+        <v>192</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D193" s="12">
+        <v>152975</v>
+      </c>
+      <c r="E193" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 192, ' Paranaguá', ' Paraná', 152975 );</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="10">
+        <v>193</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D194" s="12">
+        <v>150893</v>
+      </c>
+      <c r="E194" s="9" t="str">
+        <f t="shared" ref="E194:E257" si="3">"INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( "&amp;TEXT(A194,"#####0")&amp;", '"&amp;B194&amp;"', '"&amp;C194&amp;"', "&amp;TEXT(D194,"###########0")&amp;" );"</f>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 193, ' Patos de Minas', ' Minas Gerais', 150893 );</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="10">
+        <v>194</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D195" s="12">
+        <v>150547</v>
+      </c>
+      <c r="E195" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 194, ' Parnaíba', ' Piauí', 150547 );</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="10">
+        <v>195</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D196" s="12">
+        <v>149502</v>
+      </c>
+      <c r="E196" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 195, ' Franco da Rocha', ' São Paulo', 149502 );</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="10">
+        <v>196</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D197" s="12">
+        <v>149396</v>
+      </c>
+      <c r="E197" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 196, 'Mogi Guaçu', ' São Paulo', 149396 );</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="10">
+        <v>197</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D198" s="12">
+        <v>149324</v>
+      </c>
+      <c r="E198" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 197, ' Porto Seguro', ' Bahia', 149324 );</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="10">
+        <v>198</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D199" s="12">
+        <v>147137</v>
+      </c>
+      <c r="E199" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 198, ' Pouso Alegre', ' Minas Gerais', 147137 );</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="10">
+        <v>199</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D200" s="12">
+        <v>146338</v>
+      </c>
+      <c r="E200" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 199, ' Jaú', ' São Paulo', 146338 );</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="10">
+        <v>200</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D201" s="12">
+        <v>145386</v>
+      </c>
+      <c r="E201" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 200, ' Queimados', ' Rio de Janeiro', 145386 );</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="10">
+        <v>201</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D202" s="12">
+        <v>142546</v>
+      </c>
+      <c r="E202" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 201, ' Botucatu', ' São Paulo', 142546 );</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="10">
+        <v>202</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D203" s="12">
+        <v>141934</v>
+      </c>
+      <c r="E203" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 202, ' Teófilo Otoni', ' Minas Gerais', 141934 );</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="10">
+        <v>203</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D204" s="12">
+        <v>141117</v>
+      </c>
+      <c r="E204" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 203, ' Rio das Ostras', ' Rio de Janeiro', 141117 );</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="10">
+        <v>204</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D205" s="12">
+        <v>139683</v>
+      </c>
+      <c r="E205" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 204, ' Atibaia', ' São Paulo', 139683 );</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="10">
+        <v>205</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D206" s="12">
+        <v>139476</v>
+      </c>
+      <c r="E206" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 205, ' Sapucaia do Sul', ' Rio Grande do Sul', 139476 );</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="10">
+        <v>206</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D207" s="12">
+        <v>138642</v>
+      </c>
+      <c r="E207" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 206, ' Garanhuns', ' Pernambuco', 138642 );</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="10">
+        <v>207</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D208" s="12">
+        <v>137578</v>
+      </c>
+      <c r="E208" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 207, ' Vitória de Santo Antão', ' Pernambuco', 137578 );</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="10">
+        <v>208</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D209" s="12">
+        <v>137452</v>
+      </c>
+      <c r="E209" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 208, ' Araucária', ' Paraná', 137452 );</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="10">
+        <v>209</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D210" s="12">
+        <v>136851</v>
+      </c>
+      <c r="E210" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 209, ' Santa Rita', ' Paraíba', 136851 );</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="10">
+        <v>210</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D211" s="12">
+        <v>136689</v>
+      </c>
+      <c r="E211" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 210, ' Barbacena', ' Minas Gerais', 136689 );</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="10">
+        <v>211</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D212" s="12">
+        <v>136050</v>
+      </c>
+      <c r="E212" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 211, ' Simões Filho', ' Bahia', 136050 );</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="10">
+        <v>212</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D213" s="12">
+        <v>135968</v>
+      </c>
+      <c r="E213" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 212, ' Sabará', ' Minas Gerais', 135968 );</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="10">
+        <v>213</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D214" s="12">
+        <v>135874</v>
+      </c>
+      <c r="E214" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 213, ' Sinop', ' Mato Grosso', 135874 );</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="10">
+        <v>214</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D215" s="12">
+        <v>135538</v>
+      </c>
+      <c r="E215" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 214, ' Toledo', ' Paraná', 135538 );</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="10">
+        <v>215</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D216" s="12">
+        <v>134364</v>
+      </c>
+      <c r="E216" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 215, ' Varginha', ' Minas Gerais', 134364 );</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="10">
+        <v>216</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D217" s="12">
+        <v>132515</v>
+      </c>
+      <c r="E217" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 216, ' Cametá', ' Pará', 132515 );</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="10">
+        <v>217</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D218" s="12">
+        <v>131887</v>
+      </c>
+      <c r="E218" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 217, ' Santana de Parnaíba', ' São Paulo', 131887 );</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="10">
+        <v>218</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D219" s="12">
+        <v>131727</v>
+      </c>
+      <c r="E219" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 218, ' Balneário Camboriú', ' Santa Catarina', 131727 );</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="10">
+        <v>219</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D220" s="12">
+        <v>131571</v>
+      </c>
+      <c r="E220" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 219, ' Apucarana', ' Paraná', 131571 );</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="10">
+        <v>220</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D221" s="12">
+        <v>131560</v>
+      </c>
+      <c r="E221" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 220, ' Ji-Paraná', ' Rondônia', 131560 );</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="10">
+        <v>221</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D222" s="12">
+        <v>130604</v>
+      </c>
+      <c r="E222" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 221, ' Crato', ' Ceará', 130604 );</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="10">
+        <v>222</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D223" s="12">
+        <v>130102</v>
+      </c>
+      <c r="E223" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 222, ' Araras', ' São Paulo', 130102 );</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="10">
+        <v>223</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D224" s="12">
+        <v>129784</v>
+      </c>
+      <c r="E224" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 223, ' Uruguaiana', ' Rio Grande do Sul', 129784 );</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="10">
+        <v>224</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D225" s="12">
+        <v>129445</v>
+      </c>
+      <c r="E225" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 224, ' Pinhais', ' Paraná', 129445 );</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="10">
+        <v>225</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D226" s="12">
+        <v>128818</v>
+      </c>
+      <c r="E226" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 225, ' Brusque', ' Santa Catarina', 128818 );</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="10">
+        <v>226</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D227" s="12">
+        <v>128748</v>
+      </c>
+      <c r="E227" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 226, ' Cubatão', ' São Paulo', 128748 );</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="10">
+        <v>227</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D228" s="12">
+        <v>128449</v>
+      </c>
+      <c r="E228" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 227, ' São Mateus', ' Espírito Santo', 128449 );</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="10">
+        <v>228</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D229" s="12">
+        <v>127858</v>
+      </c>
+      <c r="E229" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 228, ' Marituba', ' Pará', 127858 );</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="10">
+        <v>229</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D230" s="12">
+        <v>127465</v>
+      </c>
+      <c r="E230" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 229, ' Itapipoca', ' Ceará', 127465 );</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="10">
+        <v>230</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D231" s="12">
+        <v>127429</v>
+      </c>
+      <c r="E231" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 230, ' Santa Cruz do Sul', ' Rio Grande do Sul', 127429 );</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="10">
+        <v>231</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D232" s="12">
+        <v>127369</v>
+      </c>
+      <c r="E232" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 231, ' Conselheiro Lafaiete', ' Minas Gerais', 127369 );</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="10">
+        <v>232</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D233" s="12">
+        <v>127318</v>
+      </c>
+      <c r="E233" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 232, ' Cachoeirinha', ' Rio Grande do Sul', 127318 );</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="10">
+        <v>233</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D234" s="12">
+        <v>127309</v>
+      </c>
+      <c r="E234" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 233, ' Campo Largo', ' Paraná', 127309 );</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="10">
+        <v>234</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D235" s="12">
+        <v>126923</v>
+      </c>
+      <c r="E235" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 234, ' Resende', ' Rio de Janeiro', 126923 );</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="10">
+        <v>236</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D236" s="12">
+        <v>126742</v>
+      </c>
+      <c r="E236" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 236, ' Araruama', ' Rio de Janeiro', 126742 );</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="10">
+        <v>235</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D237" s="12">
+        <v>126486</v>
+      </c>
+      <c r="E237" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 235, ' Maranguape', ' Ceará', 126486 );</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="10">
+        <v>237</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D238" s="12">
+        <v>124806</v>
+      </c>
+      <c r="E238" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 237, ' São Félix do Xingu', ' Pará', 124806 );</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="10">
+        <v>238</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D239" s="12">
+        <v>124525</v>
+      </c>
+      <c r="E239" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 238, ' Colatina', ' Espírito Santo', 124525 );</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="10">
+        <v>239</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D240" s="12">
+        <v>124184</v>
+      </c>
+      <c r="E240" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 239, ' Bragança', ' Pará', 124184 );</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="10">
+        <v>240</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D241" s="12">
+        <v>124024</v>
+      </c>
+      <c r="E241" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 240, ' Valinhos', ' São Paulo', 124024 );</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="10">
+        <v>241</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D242" s="12">
+        <v>123166</v>
+      </c>
+      <c r="E242" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 241, ' Guarapari', ' Espírito Santo', 123166 );</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="10">
+        <v>242</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D243" s="12">
+        <v>122643</v>
+      </c>
+      <c r="E243" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 242, ' Sertãozinho', ' São Paulo', 122643 );</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="10">
+        <v>243</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D244" s="12">
+        <v>122420</v>
+      </c>
+      <c r="E244" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 243, ' Paço do Lumiar', ' Maranhão', 122420 );</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="10">
+        <v>244</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D245" s="12">
+        <v>122369</v>
+      </c>
+      <c r="E245" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 244, ' Itaguaí', ' Rio de Janeiro', 122369 );</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="10">
+        <v>245</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D246" s="12">
+        <v>122365</v>
+      </c>
+      <c r="E246" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 245, ' Vespasiano', ' Minas Gerais', 122365 );</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="10">
+        <v>246</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D247" s="12">
+        <v>122209</v>
+      </c>
+      <c r="E247" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 246, ' Bagé', ' Rio Grande do Sul', 122209 );</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="10">
+        <v>247</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D248" s="12">
+        <v>121848</v>
+      </c>
+      <c r="E248" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 247, ' Ribeirão Pires', ' São Paulo', 121848 );</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="10">
+        <v>248</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D249" s="12">
+        <v>121492</v>
+      </c>
+      <c r="E249" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 248, ' Jandira', ' São Paulo', 121492 );</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="10">
+        <v>249</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D250" s="12">
+        <v>121266</v>
+      </c>
+      <c r="E250" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 249, ' Trindade', ' Goiás', 121266 );</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="10">
+        <v>250</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D251" s="12">
+        <v>121190</v>
+      </c>
+      <c r="E251" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 250, ' Barcarena', ' Pará', 121190 );</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="10">
+        <v>251</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D252" s="12">
+        <v>120810</v>
+      </c>
+      <c r="E252" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 251, ' Codó', ' Maranhão', 120810 );</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="10">
+        <v>252</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D253" s="12">
+        <v>120706</v>
+      </c>
+      <c r="E253" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 252, ' Paulo Afonso', ' Bahia', 120706 );</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="10">
+        <v>253</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D254" s="12">
+        <v>120692</v>
+      </c>
+      <c r="E254" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 253, ' Birigui', ' São Paulo', 120692 );</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="10">
+        <v>254</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D255" s="12">
+        <v>120691</v>
+      </c>
+      <c r="E255" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 254, ' Catanduva', ' São Paulo', 120691 );</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="10">
+        <v>255</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D256" s="12">
+        <v>120638</v>
+      </c>
+      <c r="E256" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 255, ' Barretos', ' São Paulo', 120638 );</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="10">
+        <v>256</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D257" s="12">
+        <v>120417</v>
+      </c>
+      <c r="E257" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 256, ' Guaratinguetá', ' São Paulo', 120417 );</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="10">
+        <v>257</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D258" s="12">
+        <v>119898</v>
+      </c>
+      <c r="E258" s="9" t="str">
+        <f t="shared" ref="E258:E310" si="4">"INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( "&amp;TEXT(A258,"#####0")&amp;", '"&amp;B258&amp;"', '"&amp;C258&amp;"', "&amp;TEXT(D258,"###########0")&amp;" );"</f>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 257, ' Votorantim', ' São Paulo', 119898 );</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="10">
+        <v>258</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D259" s="12">
+        <v>119285</v>
+      </c>
+      <c r="E259" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 258, ' Itabira', ' Minas Gerais', 119285 );</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="10">
+        <v>259</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D260" s="12">
+        <v>118939</v>
+      </c>
+      <c r="E260" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 259, ' Tatuí', ' São Paulo', 118939 );</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="10">
+        <v>260</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D261" s="12">
+        <v>118917</v>
+      </c>
+      <c r="E261" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 260, ' Várzea Paulista', ' São Paulo', 118917 );</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="10">
+        <v>261</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D262" s="12">
+        <v>118477</v>
+      </c>
+      <c r="E262" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 261, ' Arapongas', ' Paraná', 118477 );</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="10">
+        <v>262</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D263" s="12">
+        <v>117445</v>
+      </c>
+      <c r="E263" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 262, ' Araguari', ' Minas Gerais', 117445 );</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="10">
+        <v>263</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D264" s="12">
+        <v>117477</v>
+      </c>
+      <c r="E264" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 263, ' Três Lagoas', ' Mato Grosso do Sul', 117477 );</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="10">
+        <v>264</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D265" s="12">
+        <v>116786</v>
+      </c>
+      <c r="E265" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 264, ' Caraguatatuba', ' São Paulo', 116786 );</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="10">
+        <v>265</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D266" s="12">
+        <v>116503</v>
+      </c>
+      <c r="E266" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 265, ' Itatiba', ' São Paulo', 116503 );</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="10">
+        <v>266</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D267" s="12">
+        <v>116191</v>
+      </c>
+      <c r="E267" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 266, ' Salto', ' São Paulo', 116191 );</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="10">
+        <v>267</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D268" s="12">
+        <v>115789</v>
+      </c>
+      <c r="E268" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 267, ' Formosa', ' Goiás', 115789 );</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="10">
+        <v>268</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D269" s="12">
+        <v>115488</v>
+      </c>
+      <c r="E269" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 268, ' Poá', ' São Paulo', 115488 );</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="10">
+        <v>269</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D270" s="12">
+        <v>115471</v>
+      </c>
+      <c r="E270" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 269, ' Santana', ' Amapá', 115471 );</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="10">
+        <v>270</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D271" s="12">
+        <v>115398</v>
+      </c>
+      <c r="E271" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 270, ' Igarassu', ' Pernambuco', 115398 );</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="10">
+        <v>271</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D272" s="12">
+        <v>115364</v>
+      </c>
+      <c r="E272" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 271, ' Almirante Tamandaré', ' Paraná', 115364 );</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="10">
+        <v>272</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D273" s="12">
+        <v>115290</v>
+      </c>
+      <c r="E273" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 272, ' Eunápolis', ' Bahia', 115290 );</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="10">
+        <v>273</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D274" s="12">
+        <v>115069</v>
+      </c>
+      <c r="E274" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 273, ' Bento Gonçalves', ' Rio Grande do Sul', 115069 );</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="10">
+        <v>274</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D275" s="12">
+        <v>114458</v>
+      </c>
+      <c r="E275" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 274, ' Passos', ' Minas Gerais', 114458 );</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="10">
+        <v>275</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D276" s="12">
+        <v>113832</v>
+      </c>
+      <c r="E276" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 275, ' Parintins', ' Amazonas', 113832 );</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="10">
+        <v>276</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D277" s="12">
+        <v>113300</v>
+      </c>
+      <c r="E277" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 276, ' Ubá', ' Minas Gerais', 113300 );</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="10">
+        <v>277</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D278" s="12">
+        <v>112099</v>
+      </c>
+      <c r="E278" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 277, ' São Lourenço da Mata', ' Pernambuco', 112099 );</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="10">
+        <v>278</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D279" s="12">
+        <v>111435</v>
+      </c>
+      <c r="E279" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 278, ' Altamira', ' Pará', 111435 );</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="10">
+        <v>279</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D280" s="12">
+        <v>111339</v>
+      </c>
+      <c r="E280" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 279, ' Açailândia', ' Maranhão', 111339 );</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="10">
+        <v>280</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D281" s="12">
+        <v>111056</v>
+      </c>
+      <c r="E281" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 280, ' Ourinhos', ' São Paulo', 111056 );</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="10">
+        <v>281</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D282" s="12">
+        <v>110516</v>
+      </c>
+      <c r="E282" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 281, ' Tucuruí', ' Pará', 110516 );</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="10">
+        <v>282</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D283" s="12">
+        <v>110326</v>
+      </c>
+      <c r="E283" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 282, ' Coronel Fabriciano', ' Minas Gerais', 110326 );</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="10">
+        <v>283</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D284" s="12">
+        <v>110026</v>
+      </c>
+      <c r="E284" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 283, ' Paragominas', ' Pará', 110026 );</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="10">
+        <v>284</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D285" s="12">
+        <v>110.096</v>
+      </c>
+      <c r="E285" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 284, ' Novo Gama', ' Goiás', 110 );</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="10">
+        <v>285</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D286" s="12">
+        <v>109899</v>
+      </c>
+      <c r="E286" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 285, ' Corumbá', ' Mato Grosso do Sul', 109899 );</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="10">
+        <v>286</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C287" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D287" s="12">
+        <v>109955</v>
+      </c>
+      <c r="E287" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 286, ' Umuarama', ' Paraná', 109955 );</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="10">
+        <v>287</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D288" s="12">
+        <v>108537</v>
+      </c>
+      <c r="E288" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 287, ' Muriaé', ' Minas Gerais', 108537 );</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="10">
+        <v>288</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D289" s="12">
+        <v>107790</v>
+      </c>
+      <c r="E289" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 288, ' Patos', ' Paraíba', 107790 );</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="10">
+        <v>289</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D290" s="12">
+        <v>107751</v>
+      </c>
+      <c r="E290" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 289, ' Piraquara', ' Paraná', 107751 );</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="10">
+        <v>290</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C291" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D291" s="12">
+        <v>107345</v>
+      </c>
+      <c r="E291" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 290, ' Ariquemes', ' Rondônia', 107345 );</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="10">
+        <v>291</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C292" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D292" s="12">
+        <v>105761</v>
+      </c>
+      <c r="E292" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 291, ' Santa Cruz do Capibaribe', ' Pernambuco', 105761 );</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="10">
+        <v>292</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D293" s="12">
+        <v>105459</v>
+      </c>
+      <c r="E293" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 292, ' Senador Canedo', ' Goiás', 105459 );</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="10">
+        <v>293</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D294" s="12">
+        <v>105347</v>
+      </c>
+      <c r="E294" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 293, ' Cambé', ' Paraná', 105347 );</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="10">
+        <v>294</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D295" s="12">
+        <v>104526</v>
+      </c>
+      <c r="E295" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 294, ' Ituiutaba', ' Minas Gerais', 104526 );</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="10">
+        <v>295</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D296" s="12">
+        <v>104457</v>
+      </c>
+      <c r="E296" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 295, ' Tubarão', ' Santa Catarina', 104457 );</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="10">
+        <v>296</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D297" s="12">
+        <v>104283</v>
+      </c>
+      <c r="E297" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 296, ' Araxá', ' Minas Gerais', 104283 );</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="10">
+        <v>297</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C298" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D298" s="12">
+        <v>104099</v>
+      </c>
+      <c r="E298" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 297, ' Lagarto', ' Sergipe', 104099 );</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="10">
+        <v>298</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D299" s="12">
+        <v>103437</v>
+      </c>
+      <c r="E299" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 298, ' Erechim', ' Rio Grande do Sul', 103437 );</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="10">
+        <v>299</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D300" s="12">
+        <v>103359</v>
+      </c>
+      <c r="E300" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 299, ' Bacabal', ' Maranhão', 103359 );</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="10">
+        <v>300</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C301" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D301" s="12">
+        <v>103342</v>
+      </c>
+      <c r="E301" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 300, ' Santo Antônio de Jesus', ' Bahia', 103342 );</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="10">
+        <v>301</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D302" s="12">
+        <v>103321</v>
+      </c>
+      <c r="E302" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 301, ' Tailândia', ' Pará', 103321 );</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="10">
+        <v>302</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C303" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D303" s="12">
+        <v>102924</v>
+      </c>
+      <c r="E303" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 302, ' Assis', ' São Paulo', 102924 );</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="10">
+        <v>303</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C304" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D304" s="12">
+        <v>102614</v>
+      </c>
+      <c r="E304" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 303, ' Iguatu', ' Ceará', 102614 );</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="10">
+        <v>304</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C305" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D305" s="12">
+        <v>102513</v>
+      </c>
+      <c r="E305" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 304, ' Itumbiara', ' Goiás', 102513 );</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="10">
+        <v>305</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C306" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D306" s="12">
+        <v>102499</v>
+      </c>
+      <c r="E306" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 305, ' Paulínia', ' São Paulo', 102499 );</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="10">
+        <v>306</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C307" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D307" s="12">
+        <v>102393</v>
+      </c>
+      <c r="E307" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 306, ' Catalão', ' Goiás', 102393 );</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="10">
+        <v>307</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D308" s="12">
+        <v>102124</v>
+      </c>
+      <c r="E308" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 307, ' Lavras', ' Minas Gerais', 102124 );</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="10">
+        <v>308</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C309" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D309" s="12">
+        <v>101492</v>
+      </c>
+      <c r="E309" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 308, ' São Gonçalo do Amarante', ' Rio Grande do Norte', 101492 );</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="10">
+        <v>309</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D310" s="12">
+        <v>101237</v>
+      </c>
+      <c r="E310" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 309, ' Japeri', ' Rio de Janeiro', 101237 );</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="10">
+        <v>310</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D311" s="12">
+        <v>101184</v>
+      </c>
+      <c r="E311" s="9" t="str">
+        <f>"INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( "&amp;TEXT(A311,"#####0")&amp;", '"&amp;B311&amp;"', '"&amp;C311&amp;"', "&amp;TEXT(D311,"###########0")&amp;" );"</f>
+        <v>INSERT INTO ranking_populacao_cidade ( posicao, cidade, estado , populacao ) VALUES ( 310, ' Leme', ' São Paulo', 101184 );</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/exercicios/gabarito/Gabarito-treina-sql-i.xlsx
+++ b/doc/exercicios/gabarito/Gabarito-treina-sql-i.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="503">
   <si>
     <t>Capítulo</t>
   </si>
@@ -2090,6 +2090,25 @@
 * Um Cliente pode fazer muitos Pedidos de Vendas
 * Um Pedido de Venda é de um único Cliente
 * Um Pedido de Venda possui data do pedido, cliente, status ( aberto, cancelado, aprovado, faturado ), valor total e descricao dos serviços solicitados.</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Prediga o resultado das queries abaixo:
+a) SELECT 'Hello world!' WHERE NULL =   0;
+b) SELECT 'Hello world!' WHERE NULL =  -1;
+c) SELECT 'Hello world!' WHERE NULL &lt;&gt;  0;
+d) SELECT 'Hello world!' WHERE NULL =  '';
+e) SELECT 'Hello world!' WHERE NULL &lt;&gt; '';
+f) SELECT 'Hello world!' WHERE NULL =  NULL;
+g) SELECT 'Hello world!' WHERE NULL &lt;&gt; NULL;
+h) SELECT 'Hello world!' WHERE NULL IN     ( NULL );
+i) SELECT 'Hello world!' WHERE NULL NOT IN ( NULL );</t>
+  </si>
+  <si>
+    <t>/* SQLSERVER */
+Nenhuma query retornará nenhum resultado porque null não pode ser comparado, significa ausência de valor</t>
   </si>
 </sst>
 </file>
@@ -2366,8 +2385,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaExercicios" displayName="TabelaExercicios" ref="A1:F53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaExercicios" displayName="TabelaExercicios" ref="A1:F54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F54"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#Cap" dataDxfId="5"/>
     <tableColumn id="6" name="Capítulo" dataDxfId="4"/>
@@ -2643,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2979,33 +2998,33 @@
         <v>11</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>72</v>
+        <v>502</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>51</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3015,14 +3034,14 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>138</v>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>83</v>
@@ -3035,17 +3054,17 @@
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5">
-        <v>3</v>
+      <c r="C20" s="7">
+        <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>84</v>
+        <v>138</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3055,17 +3074,17 @@
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7">
-        <v>4</v>
+      <c r="C21" s="5">
+        <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3075,17 +3094,17 @@
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="5">
-        <v>5</v>
+      <c r="C22" s="7">
+        <v>4</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3095,14 +3114,14 @@
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="7">
-        <v>6</v>
+      <c r="C23" s="5">
+        <v>5</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>86</v>
@@ -3115,37 +3134,37 @@
       <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="5">
-        <v>7</v>
+      <c r="C24" s="7">
+        <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>61</v>
+        <v>7</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3155,14 +3174,14 @@
       <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>67</v>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>88</v>
@@ -3176,16 +3195,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3196,36 +3215,36 @@
         <v>19</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3235,17 +3254,17 @@
       <c r="B30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>95</v>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3256,16 +3275,16 @@
         <v>21</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3276,36 +3295,36 @@
         <v>21</v>
       </c>
       <c r="C32" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3315,17 +3334,17 @@
       <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>107</v>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3336,16 +3355,16 @@
         <v>23</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3356,16 +3375,16 @@
         <v>23</v>
       </c>
       <c r="C36" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3376,16 +3395,16 @@
         <v>23</v>
       </c>
       <c r="C37" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3396,16 +3415,16 @@
         <v>23</v>
       </c>
       <c r="C38" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3416,16 +3435,16 @@
         <v>23</v>
       </c>
       <c r="C39" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3436,36 +3455,36 @@
         <v>23</v>
       </c>
       <c r="C40" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>127</v>
+        <v>23</v>
+      </c>
+      <c r="C41" s="7">
+        <v>8</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3476,16 +3495,16 @@
         <v>25</v>
       </c>
       <c r="C42" s="5">
-        <v>2</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3496,16 +3515,16 @@
         <v>25</v>
       </c>
       <c r="C43" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3515,17 +3534,17 @@
       <c r="B44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="7">
-        <v>4</v>
+      <c r="C44" s="5">
+        <v>3</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3536,36 +3555,36 @@
         <v>25</v>
       </c>
       <c r="C45" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>489</v>
+        <v>139</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>144</v>
+        <v>489</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3576,16 +3595,16 @@
         <v>25</v>
       </c>
       <c r="C47" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>491</v>
+        <v>143</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>492</v>
+        <v>144</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>493</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3596,16 +3615,16 @@
         <v>25</v>
       </c>
       <c r="C48" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3613,26 +3632,30 @@
         <v>26</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C49" s="7">
+        <v>8</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>497</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
@@ -3643,44 +3666,60 @@
       <c r="B51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="7">
         <v>2</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>5</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>499</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>6</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/doc/exercicios/gabarito/Gabarito-treina-sql-i.xlsx
+++ b/doc/exercicios/gabarito/Gabarito-treina-sql-i.xlsx
@@ -152,9 +152,6 @@
     <t>Qual o nome do contato do cliente (Customers) daquela companhia de Campinas no Brasil?</t>
   </si>
   <si>
-    <t>Qual o nome do funcionário representante de cendas ('Sales Representative') que foi contratado  antes de 1.993 e que nasceu após a década de 50?</t>
-  </si>
-  <si>
     <t>A NorthWind está abrindo uma fábrica na China e precisa localizar um fornecedor (Suppliers) para atende-la, que seja da Asia Oriental ou Oceania ( você vai ter que achar os países ), porém já se sabe que um terrível terromoto destruiu a cidade (City) de Osaka e a Região não pode ser a região de 'Victoria' por causa de uma epidemia de dengue. Quais são os possíveis fornecedores? ( Não usar cláusula IN, somente AND e OR)</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
   </si>
   <si>
     <t>Quais foram as datas (Order Date) do primeiro pedido registrado e o último pedido registrado pela NorthWind?</t>
-  </si>
-  <si>
-    <t>Quantas regiões distintas os empregados (Employees) estão?</t>
   </si>
   <si>
     <t xml:space="preserve">Quantas categorias (CategoryId) distintas de produtos (Products) possui a NorthWind? </t>
@@ -237,14 +231,6 @@
   </si>
   <si>
     <t>Você estudou no Boston College e quer saber se tem mais algum colega de estudo na empresa. Você sabe que a pessoa responsável pelo cadastro de funcionários costuma anotar ( Note ) as informações de graduação na ficha de funcionários.</t>
-  </si>
-  <si>
-    <t>Você como um bom latino americano, acredita que por proximidade da cultura, terá mais facilidade em atender os clientes da NorthWind destes paises. Localize estes clientes.</t>
-  </si>
-  <si>
-    <t>SELECT CompanyName, Country
-FROM   Customers
-WHERE  Country IN ( 'Argentina', 'Brazil', 'Mexico', 'Venezuela');</t>
   </si>
   <si>
     <t>O vice presidente de vendas da NorthWind resolveu fazer um grande encontro global com todos os funcionários e logo em seguida tem uma grande festa. Estas festas são famosas! Você que nasceu em 1950, está se antecipando e identidicando potenciais parceiros, independente da orientação sexual, em sua mesma faixa etária, com no máximo uma tolerância de 3 anos a mais ou a menos.</t>
@@ -268,13 +254,6 @@
 WHERE  Notes LIKE '%Boston College%';
 /*
  Janet Leverling  ... degree in ... Boston College (1984) ...
-*/</t>
-  </si>
-  <si>
-    <t>SELECT COUNT(*), COUNT(DISTINCT Region)
-FROM   Employees;
-/*
-1 desconsiderando os nulos
 */</t>
   </si>
   <si>
@@ -593,21 +572,6 @@
     <t>Em seguida ele quis saber quantos empregados em quantas cidades distintas de cada país. Observe que ele não quis saber as cidades.</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT Country, 
-       COUNT(*) AS QtdeEmployees,
-       COUNT(DISTINCT City) 
-FROM   Employees
-GROUP  BY Country
-ORDER  BY Country;
-/*
-Country QtdeEmployees
-------- -------------
-UK      4
-USA     5
-*/
-</t>
-  </si>
-  <si>
     <t>GROUP BY com COUNT(DISTINCT )</t>
   </si>
   <si>
@@ -2109,6 +2073,41 @@
   <si>
     <t>/* SQLSERVER */
 Nenhuma query retornará nenhum resultado porque null não pode ser comparado, significa ausência de valor</t>
+  </si>
+  <si>
+    <t>Qual o nome do funcionário representante de vendas ('Sales Representative') que foi contratado  antes de 1.993 e que nasceu após a década de 50?</t>
+  </si>
+  <si>
+    <t>Em quantos paises diferentes trabalham os empregados (Employees) da NorthWind</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT Country)
+FROM   Employees;
+/*
+*/</t>
+  </si>
+  <si>
+    <t>Você como um bom sul americano, acredita que por proximidade da cultura, terá mais facilidade em atender os clientes da NorthWind destes paises. Localize estes clientes.</t>
+  </si>
+  <si>
+    <t>SELECT CompanyName, Country
+FROM   Customers
+WHERE  Country IN ( 'Argentina', 'Brazil', 'Venezuela');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT Country, 
+       COUNT(*) AS QtdeEmployees,
+       COUNT(DISTINCT City)  QtdCities
+FROM   Employees
+GROUP  BY Country
+ORDER  BY Country;
+/*
+Country QtdeEmployees
+------- -------------
+UK      4
+USA     5
+*/
+</t>
   </si>
 </sst>
 </file>
@@ -2386,7 +2385,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaExercicios" displayName="TabelaExercicios" ref="A1:F54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F54"/>
+  <autoFilter ref="A1:F54">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="4.5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="#Cap" dataDxfId="5"/>
     <tableColumn id="6" name="Capítulo" dataDxfId="4"/>
@@ -2664,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2699,7 +2704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -2713,11 +2718,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2731,11 +2736,11 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2751,7 +2756,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2765,11 +2770,11 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2787,7 +2792,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -2801,13 +2806,13 @@
         <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2821,13 +2826,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -2841,13 +2846,13 @@
         <v>34</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2861,13 +2866,13 @@
         <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -2881,13 +2886,13 @@
         <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2901,13 +2906,13 @@
         <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -2921,13 +2926,13 @@
         <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -2938,16 +2943,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>39</v>
+        <v>497</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -2958,16 +2963,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2978,16 +2983,16 @@
         <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -2998,16 +3003,16 @@
         <v>11</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -3018,16 +3023,16 @@
         <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -3038,16 +3043,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -3058,16 +3063,16 @@
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -3078,16 +3083,16 @@
         <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="F21" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -3098,16 +3103,16 @@
         <v>4</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
@@ -3118,16 +3123,16 @@
         <v>5</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
@@ -3138,16 +3143,16 @@
         <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>57</v>
+        <v>498</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>68</v>
+        <v>499</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
@@ -3158,16 +3163,16 @@
         <v>7</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
@@ -3178,16 +3183,16 @@
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
@@ -3198,16 +3203,16 @@
         <v>2</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
@@ -3218,16 +3223,16 @@
         <v>3</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>63</v>
+        <v>500</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>64</v>
+        <v>501</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
@@ -3238,16 +3243,16 @@
         <v>4</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3258,16 +3263,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3278,16 +3283,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3298,16 +3303,16 @@
         <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
@@ -3318,13 +3323,13 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3338,13 +3343,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3358,13 +3363,13 @@
         <v>2</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>107</v>
+        <v>502</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3378,13 +3383,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3398,13 +3403,13 @@
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3418,13 +3423,13 @@
         <v>5</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3438,13 +3443,13 @@
         <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3458,13 +3463,13 @@
         <v>7</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3478,16 +3483,16 @@
         <v>8</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>24</v>
       </c>
@@ -3498,16 +3503,16 @@
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>24</v>
       </c>
@@ -3518,16 +3523,16 @@
         <v>2</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>24</v>
       </c>
@@ -3538,16 +3543,16 @@
         <v>3</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>24</v>
       </c>
@@ -3558,16 +3563,16 @@
         <v>4</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>24</v>
       </c>
@@ -3578,16 +3583,16 @@
         <v>5</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
@@ -3598,16 +3603,16 @@
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -3618,16 +3623,16 @@
         <v>7</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>26</v>
       </c>
@@ -3638,16 +3643,16 @@
         <v>8</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>26</v>
       </c>
@@ -3659,7 +3664,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -3670,12 +3675,12 @@
         <v>1</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>28</v>
       </c>
@@ -3686,12 +3691,12 @@
         <v>2</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>5</v>
       </c>
@@ -3702,12 +3707,12 @@
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>6</v>
       </c>
@@ -3747,16 +3752,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E1" s="9" t="str">
         <f>"CREATE TABLE ranking_populacao_cidade ( posicao INTEGER, cidade VARCHAR(100), estado VARCHAR(100), populacao BIGINT);"</f>
@@ -3768,10 +3773,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D2" s="12">
         <v>12106920</v>
@@ -3786,10 +3791,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D3" s="12">
         <v>6520266</v>
@@ -3804,10 +3809,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D4" s="12">
         <v>3039444</v>
@@ -3822,10 +3827,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D5" s="12">
         <v>2953986</v>
@@ -3840,10 +3845,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D6" s="12">
         <v>2627482</v>
@@ -3858,10 +3863,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D7" s="12">
         <v>2523794</v>
@@ -3876,10 +3881,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D8" s="12">
         <v>2130264</v>
@@ -3894,10 +3899,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D9" s="12">
         <v>1908359</v>
@@ -3912,10 +3917,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D10" s="12">
         <v>1633697</v>
@@ -3930,10 +3935,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D11" s="12">
         <v>1484941</v>
@@ -3948,10 +3953,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D12" s="12">
         <v>1466105</v>
@@ -3966,10 +3971,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D13" s="12">
         <v>1452275</v>
@@ -3984,10 +3989,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D14" s="12">
         <v>1349113</v>
@@ -4002,10 +4007,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D15" s="12">
         <v>1182429</v>
@@ -4020,10 +4025,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D16" s="12">
         <v>1091868</v>
@@ -4038,10 +4043,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D17" s="12">
         <v>1049826</v>
@@ -4056,10 +4061,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D18" s="12">
         <v>1029129</v>
@@ -4074,10 +4079,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D19" s="12">
         <v>890997</v>
@@ -4092,10 +4097,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D20" s="12">
         <v>885180</v>
@@ -4110,10 +4115,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D21" s="12">
         <v>874210</v>
@@ -4128,10 +4133,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D22" s="12">
         <v>850198</v>
@@ -4146,10 +4151,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D23" s="12">
         <v>827437</v>
@@ -4164,10 +4169,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D24" s="12">
         <v>811598</v>
@@ -4182,10 +4187,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D25" s="12">
         <v>798647</v>
@@ -4200,10 +4205,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D26" s="12">
         <v>715231</v>
@@ -4218,10 +4223,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D27" s="12">
         <v>703219</v>
@@ -4236,10 +4241,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D28" s="12">
         <v>697886</v>
@@ -4254,10 +4259,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D29" s="12">
         <v>695956</v>
@@ -4272,10 +4277,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D30" s="12">
         <v>682302</v>
@@ -4290,10 +4295,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D31" s="12">
         <v>676613</v>
@@ -4308,10 +4313,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D32" s="12">
         <v>659871</v>
@@ -4326,10 +4331,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D33" s="12">
         <v>658580</v>
@@ -4344,10 +4349,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D34" s="12">
         <v>650106</v>
@@ -4362,10 +4367,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D35" s="12">
         <v>627477</v>
@@ -4380,10 +4385,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D36" s="12">
         <v>590118</v>
@@ -4398,10 +4403,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D37" s="12">
         <v>577077</v>
@@ -4416,10 +4421,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D38" s="12">
         <v>563769</v>
@@ -4434,10 +4439,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D39" s="12">
         <v>558439</v>
@@ -4452,10 +4457,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D40" s="12">
         <v>542090</v>
@@ -4470,10 +4475,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D41" s="12">
         <v>519436</v>
@@ -4488,10 +4493,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D42" s="12">
         <v>516057</v>
@@ -4506,10 +4511,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D43" s="12">
         <v>502618</v>
@@ -4524,10 +4529,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D44" s="12">
         <v>499028</v>
@@ -4542,10 +4547,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D45" s="12">
         <v>495783</v>
@@ -4560,10 +4565,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D46" s="12">
         <v>490288</v>
@@ -4578,10 +4583,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D47" s="12">
         <v>486388</v>
@@ -4596,10 +4601,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D48" s="12">
         <v>485838</v>
@@ -4614,10 +4619,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D49" s="12">
         <v>483377</v>
@@ -4632,10 +4637,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D50" s="12">
         <v>474706</v>
@@ -4650,10 +4655,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D51" s="12">
         <v>462005</v>
@@ -4668,10 +4673,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D52" s="12">
         <v>460461</v>
@@ -4686,10 +4691,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D53" s="12">
         <v>450657</v>
@@ -4704,10 +4709,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D54" s="12">
         <v>434742</v>
@@ -4722,10 +4727,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D55" s="12">
         <v>433901</v>
@@ -4740,10 +4745,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D56" s="12">
         <v>427146</v>
@@ -4758,10 +4763,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D57" s="12">
         <v>417869</v>
@@ -4776,10 +4781,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D58" s="12">
         <v>410332</v>
@@ -4794,10 +4799,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D59" s="12">
         <v>409497</v>
@@ -4812,10 +4817,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D60" s="12">
         <v>406693</v>
@@ -4830,10 +4835,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D61" s="12">
         <v>402027</v>
@@ -4848,10 +4853,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D62" s="12">
         <v>397322</v>
@@ -4866,10 +4871,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D63" s="12">
         <v>396587</v>
@@ -4884,10 +4889,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D64" s="12">
         <v>390771</v>
@@ -4902,10 +4907,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D65" s="12">
         <v>387368</v>
@@ -4920,10 +4925,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D66" s="12">
         <v>383443</v>
@@ -4938,10 +4943,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D67" s="12">
         <v>375142</v>
@@ -4956,10 +4961,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D68" s="12">
         <v>371690</v>
@@ -4974,10 +4979,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D69" s="12">
         <v>363140</v>
@@ -4992,10 +4997,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D70" s="12">
         <v>362223</v>
@@ -5010,10 +5015,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D71" s="12">
         <v>360657</v>
@@ -5028,10 +5033,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D72" s="12">
         <v>360380</v>
@@ -5046,10 +5051,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D73" s="12">
         <v>356128</v>
@@ -5064,10 +5069,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D74" s="12">
         <v>348718</v>
@@ -5082,10 +5087,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D75" s="12">
         <v>348513</v>
@@ -5100,10 +5105,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D76" s="12">
         <v>347237</v>
@@ -5118,10 +5123,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D77" s="12">
         <v>344385</v>
@@ -5136,10 +5141,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D78" s="12">
         <v>344332</v>
@@ -5154,10 +5159,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D79" s="12">
         <v>343853</v>
@@ -5172,10 +5177,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D80" s="12">
         <v>343219</v>
@@ -5190,10 +5195,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D81" s="12">
         <v>332020</v>
@@ -5208,10 +5213,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D82" s="12">
         <v>328871</v>
@@ -5226,10 +5231,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D83" s="12">
         <v>328353</v>
@@ -5244,10 +5249,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D84" s="12">
         <v>328272</v>
@@ -5262,10 +5267,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D85" s="12">
         <v>319608</v>
@@ -5280,10 +5285,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D86" s="12">
         <v>315563</v>
@@ -5298,10 +5303,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D87" s="12">
         <v>310024</v>
@@ -5316,10 +5321,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D88" s="12">
         <v>307953</v>
@@ -5334,10 +5339,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D89" s="12">
         <v>307530</v>
@@ -5352,10 +5357,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D90" s="12">
         <v>300911</v>
@@ -5370,10 +5375,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D91" s="12">
         <v>298235</v>
@@ -5388,10 +5393,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D92" s="12">
         <v>296893</v>
@@ -5406,10 +5411,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D93" s="12">
         <v>296302</v>
@@ -5424,10 +5429,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D94" s="12">
         <v>295619</v>
@@ -5442,10 +5447,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D95" s="12">
         <v>290769</v>
@@ -5460,10 +5465,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D96" s="12">
         <v>286787</v>
@@ -5478,10 +5483,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D97" s="12">
         <v>279665</v>
@@ -5496,10 +5501,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D98" s="12">
         <v>280901</v>
@@ -5514,10 +5519,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D99" s="12">
         <v>279634</v>
@@ -5532,10 +5537,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D100" s="12">
         <v>275146</v>
@@ -5550,10 +5555,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D101" s="12">
         <v>274013</v>
@@ -5568,10 +5573,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D102" s="12">
         <v>273007</v>
@@ -5586,10 +5591,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D103" s="12">
         <v>271594</v>
@@ -5604,10 +5609,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D104" s="12">
         <v>270383</v>
@@ -5622,10 +5627,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D105" s="12">
         <v>267534</v>
@@ -5640,10 +5645,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D106" s="12">
         <v>267054</v>
@@ -5658,10 +5663,10 @@
         <v>107</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D107" s="12">
         <v>265201</v>
@@ -5676,10 +5681,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D108" s="12">
         <v>264044</v>
@@ -5694,10 +5699,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D109" s="12">
         <v>261203</v>
@@ -5712,10 +5717,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D110" s="12">
         <v>254709</v>
@@ -5730,10 +5735,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D111" s="12">
         <v>254569</v>
@@ -5748,10 +5753,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D112" s="12">
         <v>253717</v>
@@ -5766,10 +5771,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D113" s="12">
         <v>249508</v>
@@ -5784,10 +5789,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D114" s="12">
         <v>246088</v>
@@ -5802,10 +5807,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D115" s="12">
         <v>244139</v>
@@ -5820,10 +5825,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D116" s="12">
         <v>239718</v>
@@ -5838,10 +5843,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D117" s="12">
         <v>239602</v>
@@ -5856,10 +5861,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D118" s="12">
         <v>237750</v>
@@ -5874,10 +5879,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D119" s="12">
         <v>237420</v>
@@ -5892,10 +5897,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D120" s="12">
         <v>237402</v>
@@ -5910,10 +5915,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D121" s="12">
         <v>236228</v>
@@ -5928,10 +5933,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D122" s="12">
         <v>235234</v>
@@ -5946,10 +5951,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D123" s="12">
         <v>234937</v>
@@ -5964,10 +5969,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D124" s="12">
         <v>234185</v>
@@ -5982,10 +5987,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D125" s="12">
         <v>233868</v>
@@ -6000,10 +6005,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D126" s="12">
         <v>232394</v>
@@ -6018,10 +6023,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D127" s="12">
         <v>230914</v>
@@ -6036,10 +6041,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D128" s="12">
         <v>230770</v>
@@ -6054,10 +6059,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D129" s="12">
         <v>229851</v>
@@ -6072,10 +6077,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D130" s="12">
         <v>229502</v>
@@ -6090,10 +6095,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D131" s="12">
         <v>225271</v>
@@ -6108,10 +6113,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D132" s="12">
         <v>224804</v>
@@ -6126,10 +6131,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D133" s="12">
         <v>222316</v>
@@ -6144,10 +6149,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D134" s="12">
         <v>222186</v>
@@ -6162,10 +6167,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D135" s="12">
         <v>221773</v>
@@ -6180,10 +6185,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D136" s="12">
         <v>221046</v>
@@ -6198,10 +6203,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D137" s="12">
         <v>218897</v>
@@ -6216,10 +6221,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D138" s="12">
         <v>218069</v>
@@ -6234,10 +6239,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D139" s="12">
         <v>217048</v>
@@ -6252,10 +6257,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D140" s="12">
         <v>216030</v>
@@ -6270,10 +6275,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D141" s="12">
         <v>213279</v>
@@ -6288,10 +6293,10 @@
         <v>142</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D142" s="12">
         <v>212615</v>
@@ -6306,10 +6311,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D143" s="12">
         <v>211649</v>
@@ -6324,10 +6329,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D144" s="12">
         <v>211369</v>
@@ -6342,10 +6347,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D145" s="12">
         <v>209378</v>
@@ -6360,10 +6365,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D146" s="12">
         <v>208177</v>
@@ -6378,10 +6383,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D147" s="12">
         <v>205529</v>
@@ -6396,10 +6401,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D148" s="12">
         <v>204653</v>
@@ -6414,10 +6419,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D149" s="12">
         <v>202952</v>
@@ -6432,10 +6437,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D150" s="12">
         <v>202356</v>
@@ -6450,10 +6455,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D151" s="12">
         <v>199615</v>
@@ -6468,10 +6473,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D152" s="12">
         <v>198799</v>
@@ -6486,10 +6491,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D153" s="12">
         <v>197636</v>
@@ -6504,10 +6509,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D154" s="12">
         <v>195810</v>
@@ -6522,10 +6527,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D155" s="12">
         <v>195253</v>
@@ -6540,10 +6545,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D156" s="12">
         <v>194874</v>
@@ -6558,10 +6563,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D157" s="12">
         <v>194619</v>
@@ -6576,10 +6581,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D158" s="12">
         <v>191889</v>
@@ -6594,10 +6599,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D159" s="12">
         <v>188868</v>
@@ -6612,10 +6617,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D160" s="12">
         <v>185381</v>
@@ -6630,10 +6635,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D161" s="12">
         <v>181928</v>
@@ -6648,10 +6653,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D162" s="12">
         <v>180364</v>
@@ -6666,10 +6671,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D163" s="12">
         <v>179451</v>
@@ -6684,10 +6689,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D164" s="12">
         <v>177475</v>
@@ -6699,13 +6704,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D165" s="12">
         <v>176418</v>
@@ -6717,13 +6722,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D166" s="12">
         <v>176341</v>
@@ -6738,10 +6743,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D167" s="12">
         <v>176060</v>
@@ -6756,10 +6761,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D168" s="12">
         <v>175960</v>
@@ -6774,10 +6779,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D169" s="12">
         <v>171602</v>
@@ -6792,10 +6797,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D170" s="12">
         <v>171280</v>
@@ -6810,10 +6815,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D171" s="12">
         <v>170927</v>
@@ -6828,10 +6833,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D172" s="12">
         <v>170835</v>
@@ -6846,10 +6851,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D173" s="12">
         <v>170157</v>
@@ -6864,10 +6869,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D174" s="12">
         <v>169048</v>
@@ -6882,10 +6887,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D175" s="12">
         <v>167619</v>
@@ -6900,10 +6905,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D176" s="12">
         <v>166085</v>
@@ -6918,10 +6923,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D177" s="12">
         <v>164926</v>
@@ -6936,10 +6941,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D178" s="12">
         <v>164163</v>
@@ -6954,10 +6959,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D179" s="12">
         <v>164000</v>
@@ -6972,10 +6977,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D180" s="12">
         <v>162657</v>
@@ -6990,10 +6995,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D181" s="12">
         <v>162209</v>
@@ -7008,10 +7013,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D182" s="12">
         <v>161690</v>
@@ -7026,10 +7031,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D183" s="12">
         <v>160070</v>
@@ -7044,10 +7049,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D184" s="12">
         <v>159608</v>
@@ -7062,10 +7067,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D185" s="12">
         <v>159500</v>
@@ -7080,10 +7085,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D186" s="12">
         <v>158508</v>
@@ -7098,10 +7103,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D187" s="12">
         <v>158329</v>
@@ -7116,10 +7121,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D188" s="12">
         <v>157638</v>
@@ -7134,10 +7139,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D189" s="12">
         <v>156361</v>
@@ -7152,10 +7157,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D190" s="12">
         <v>155979</v>
@@ -7170,10 +7175,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D191" s="12">
         <v>153380</v>
@@ -7188,10 +7193,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D192" s="12">
         <v>153008</v>
@@ -7206,10 +7211,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D193" s="12">
         <v>152975</v>
@@ -7224,10 +7229,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D194" s="12">
         <v>150893</v>
@@ -7242,10 +7247,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D195" s="12">
         <v>150547</v>
@@ -7260,10 +7265,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D196" s="12">
         <v>149502</v>
@@ -7278,10 +7283,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D197" s="12">
         <v>149396</v>
@@ -7296,10 +7301,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D198" s="12">
         <v>149324</v>
@@ -7314,10 +7319,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D199" s="12">
         <v>147137</v>
@@ -7332,10 +7337,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D200" s="12">
         <v>146338</v>
@@ -7350,10 +7355,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D201" s="12">
         <v>145386</v>
@@ -7368,10 +7373,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D202" s="12">
         <v>142546</v>
@@ -7386,10 +7391,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D203" s="12">
         <v>141934</v>
@@ -7404,10 +7409,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D204" s="12">
         <v>141117</v>
@@ -7422,10 +7427,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D205" s="12">
         <v>139683</v>
@@ -7440,10 +7445,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D206" s="12">
         <v>139476</v>
@@ -7458,10 +7463,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D207" s="12">
         <v>138642</v>
@@ -7476,10 +7481,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D208" s="12">
         <v>137578</v>
@@ -7494,10 +7499,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D209" s="12">
         <v>137452</v>
@@ -7512,10 +7517,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D210" s="12">
         <v>136851</v>
@@ -7530,10 +7535,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D211" s="12">
         <v>136689</v>
@@ -7548,10 +7553,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D212" s="12">
         <v>136050</v>
@@ -7566,10 +7571,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D213" s="12">
         <v>135968</v>
@@ -7584,10 +7589,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D214" s="12">
         <v>135874</v>
@@ -7602,10 +7607,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D215" s="12">
         <v>135538</v>
@@ -7620,10 +7625,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D216" s="12">
         <v>134364</v>
@@ -7638,10 +7643,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D217" s="12">
         <v>132515</v>
@@ -7656,10 +7661,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D218" s="12">
         <v>131887</v>
@@ -7674,10 +7679,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D219" s="12">
         <v>131727</v>
@@ -7692,10 +7697,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D220" s="12">
         <v>131571</v>
@@ -7710,10 +7715,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D221" s="12">
         <v>131560</v>
@@ -7728,10 +7733,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D222" s="12">
         <v>130604</v>
@@ -7746,10 +7751,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D223" s="12">
         <v>130102</v>
@@ -7764,10 +7769,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D224" s="12">
         <v>129784</v>
@@ -7782,10 +7787,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D225" s="12">
         <v>129445</v>
@@ -7800,10 +7805,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D226" s="12">
         <v>128818</v>
@@ -7818,10 +7823,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D227" s="12">
         <v>128748</v>
@@ -7836,10 +7841,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D228" s="12">
         <v>128449</v>
@@ -7854,10 +7859,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D229" s="12">
         <v>127858</v>
@@ -7872,10 +7877,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D230" s="12">
         <v>127465</v>
@@ -7890,10 +7895,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D231" s="12">
         <v>127429</v>
@@ -7908,10 +7913,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D232" s="12">
         <v>127369</v>
@@ -7926,10 +7931,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D233" s="12">
         <v>127318</v>
@@ -7944,10 +7949,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D234" s="12">
         <v>127309</v>
@@ -7962,10 +7967,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D235" s="12">
         <v>126923</v>
@@ -7980,10 +7985,10 @@
         <v>236</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D236" s="12">
         <v>126742</v>
@@ -7998,10 +8003,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D237" s="12">
         <v>126486</v>
@@ -8016,10 +8021,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D238" s="12">
         <v>124806</v>
@@ -8034,10 +8039,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D239" s="12">
         <v>124525</v>
@@ -8052,10 +8057,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D240" s="12">
         <v>124184</v>
@@ -8070,10 +8075,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D241" s="12">
         <v>124024</v>
@@ -8088,10 +8093,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D242" s="12">
         <v>123166</v>
@@ -8106,10 +8111,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D243" s="12">
         <v>122643</v>
@@ -8124,10 +8129,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D244" s="12">
         <v>122420</v>
@@ -8142,10 +8147,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D245" s="12">
         <v>122369</v>
@@ -8160,10 +8165,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D246" s="12">
         <v>122365</v>
@@ -8178,10 +8183,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D247" s="12">
         <v>122209</v>
@@ -8196,10 +8201,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D248" s="12">
         <v>121848</v>
@@ -8214,10 +8219,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D249" s="12">
         <v>121492</v>
@@ -8232,10 +8237,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D250" s="12">
         <v>121266</v>
@@ -8250,10 +8255,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D251" s="12">
         <v>121190</v>
@@ -8268,10 +8273,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D252" s="12">
         <v>120810</v>
@@ -8286,10 +8291,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D253" s="12">
         <v>120706</v>
@@ -8304,10 +8309,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D254" s="12">
         <v>120692</v>
@@ -8322,10 +8327,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D255" s="12">
         <v>120691</v>
@@ -8340,10 +8345,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D256" s="12">
         <v>120638</v>
@@ -8358,10 +8363,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D257" s="12">
         <v>120417</v>
@@ -8376,10 +8381,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D258" s="12">
         <v>119898</v>
@@ -8394,10 +8399,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D259" s="12">
         <v>119285</v>
@@ -8412,10 +8417,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D260" s="12">
         <v>118939</v>
@@ -8430,10 +8435,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D261" s="12">
         <v>118917</v>
@@ -8448,10 +8453,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D262" s="12">
         <v>118477</v>
@@ -8466,10 +8471,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D263" s="12">
         <v>117445</v>
@@ -8484,10 +8489,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D264" s="12">
         <v>117477</v>
@@ -8502,10 +8507,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D265" s="12">
         <v>116786</v>
@@ -8520,10 +8525,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D266" s="12">
         <v>116503</v>
@@ -8538,10 +8543,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D267" s="12">
         <v>116191</v>
@@ -8556,10 +8561,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D268" s="12">
         <v>115789</v>
@@ -8574,10 +8579,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D269" s="12">
         <v>115488</v>
@@ -8592,10 +8597,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D270" s="12">
         <v>115471</v>
@@ -8610,10 +8615,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D271" s="12">
         <v>115398</v>
@@ -8628,10 +8633,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D272" s="12">
         <v>115364</v>
@@ -8646,10 +8651,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D273" s="12">
         <v>115290</v>
@@ -8664,10 +8669,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D274" s="12">
         <v>115069</v>
@@ -8682,10 +8687,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D275" s="12">
         <v>114458</v>
@@ -8700,10 +8705,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D276" s="12">
         <v>113832</v>
@@ -8718,10 +8723,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D277" s="12">
         <v>113300</v>
@@ -8736,10 +8741,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D278" s="12">
         <v>112099</v>
@@ -8754,10 +8759,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D279" s="12">
         <v>111435</v>
@@ -8772,10 +8777,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D280" s="12">
         <v>111339</v>
@@ -8790,10 +8795,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D281" s="12">
         <v>111056</v>
@@ -8808,10 +8813,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D282" s="12">
         <v>110516</v>
@@ -8826,10 +8831,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D283" s="12">
         <v>110326</v>
@@ -8844,10 +8849,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D284" s="12">
         <v>110026</v>
@@ -8862,10 +8867,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D285" s="12">
         <v>110.096</v>
@@ -8880,10 +8885,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D286" s="12">
         <v>109899</v>
@@ -8898,10 +8903,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D287" s="12">
         <v>109955</v>
@@ -8916,10 +8921,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D288" s="12">
         <v>108537</v>
@@ -8934,10 +8939,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D289" s="12">
         <v>107790</v>
@@ -8952,10 +8957,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D290" s="12">
         <v>107751</v>
@@ -8970,10 +8975,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D291" s="12">
         <v>107345</v>
@@ -8988,10 +8993,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D292" s="12">
         <v>105761</v>
@@ -9006,10 +9011,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D293" s="12">
         <v>105459</v>
@@ -9024,10 +9029,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D294" s="12">
         <v>105347</v>
@@ -9042,10 +9047,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D295" s="12">
         <v>104526</v>
@@ -9060,10 +9065,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D296" s="12">
         <v>104457</v>
@@ -9078,10 +9083,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D297" s="12">
         <v>104283</v>
@@ -9096,10 +9101,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D298" s="12">
         <v>104099</v>
@@ -9114,10 +9119,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D299" s="12">
         <v>103437</v>
@@ -9132,10 +9137,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D300" s="12">
         <v>103359</v>
@@ -9150,10 +9155,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D301" s="12">
         <v>103342</v>
@@ -9168,10 +9173,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D302" s="12">
         <v>103321</v>
@@ -9186,10 +9191,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D303" s="12">
         <v>102924</v>
@@ -9204,10 +9209,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D304" s="12">
         <v>102614</v>
@@ -9222,10 +9227,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D305" s="12">
         <v>102513</v>
@@ -9240,10 +9245,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D306" s="12">
         <v>102499</v>
@@ -9258,10 +9263,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D307" s="12">
         <v>102393</v>
@@ -9276,10 +9281,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D308" s="12">
         <v>102124</v>
@@ -9294,10 +9299,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D309" s="12">
         <v>101492</v>
@@ -9312,10 +9317,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D310" s="12">
         <v>101237</v>
@@ -9330,10 +9335,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D311" s="12">
         <v>101184</v>
